--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_1_bus_ward34_inductance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_1_bus_ward34_inductance.xlsx
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8909260930493287</v>
+        <v>0.8909260930483733</v>
       </c>
       <c r="G2">
-        <v>0.713995696898965</v>
+        <v>0.7139956970177583</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -552,22 +552,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>15.44302300401258</v>
+        <v>5.496310909000787</v>
       </c>
       <c r="C3">
-        <v>534.9620093080948</v>
+        <v>190.3977949716888</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799873</v>
+        <v>0.1077319053846547</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>61.47168303997802</v>
+        <v>87.32801736352476</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7333333491273745</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-6.157803613501171E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.046595068051294</v>
+        <v>1.046595068049951</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523254</v>
+        <v>0.8909260930523821</v>
       </c>
       <c r="P2">
-        <v>1.056652021166353</v>
+        <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204031805</v>
+        <v>25.18850204033979</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314934</v>
+        <v>-89.28600430314906</v>
       </c>
       <c r="S2">
-        <v>155.0677071883441</v>
+        <v>155.0677071882993</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -778,55 +778,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248875</v>
       </c>
       <c r="D3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248875</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>154.4302300398571</v>
+        <v>54.96310908950735</v>
       </c>
       <c r="G3">
-        <v>154.4302300398571</v>
+        <v>54.96310908950735</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843665</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781327</v>
+        <v>0.1077319054063124</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133368</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822387</v>
+        <v>0.1077319054133263</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642943</v>
       </c>
       <c r="N3">
-        <v>0.9526279648092861</v>
+        <v>0.952627964802082</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648096813</v>
+        <v>0.9526279648025194</v>
       </c>
       <c r="Q3">
-        <v>8.619094964871716E-11</v>
+        <v>-4.010741462182681E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999998819</v>
+        <v>-179.9999999999899</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.020756821999032</v>
+        <v>0.9526279647753109</v>
       </c>
       <c r="O4">
-        <v>0.733333349138041</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.020756821923894</v>
+        <v>0.9526279648292907</v>
       </c>
       <c r="Q4">
-        <v>21.0517244322152</v>
+        <v>1.41510081469633E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000625394</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755662198</v>
+        <v>179.9999999985764</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663872</v>
       </c>
       <c r="O5">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023756181</v>
+        <v>0.9526279648382144</v>
       </c>
       <c r="Q5">
-        <v>29.99999999523754</v>
+        <v>1.888139238429756E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000015438</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663871</v>
       </c>
       <c r="O6">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023756181</v>
+        <v>0.9526279648382144</v>
       </c>
       <c r="Q6">
-        <v>29.99999999523754</v>
+        <v>1.888163762621318E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000015438</v>
+        <v>179.9999999981034</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.093471052895229</v>
+        <v>1.095305273568648</v>
       </c>
       <c r="O2">
-        <v>1.060892992359799</v>
+        <v>1.018983908531544</v>
       </c>
       <c r="P2">
-        <v>1.087229555233819</v>
+        <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>29.01852472695075</v>
+        <v>27.70356907604971</v>
       </c>
       <c r="R2">
-        <v>-90.38582100567785</v>
+        <v>-91.92524130249696</v>
       </c>
       <c r="S2">
-        <v>150.7988511679325</v>
+        <v>151.4402860785753</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1145,55 +1145,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.540092364349599</v>
+        <v>2.010953897753577</v>
       </c>
       <c r="D3">
-        <v>2.540092364349599</v>
+        <v>2.010953897753577</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.33046020647508</v>
+        <v>23.2204954839191</v>
       </c>
       <c r="G3">
-        <v>29.33046020647508</v>
+        <v>23.2204954839191</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843665</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781327</v>
+        <v>0.1077319054063124</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133368</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822387</v>
+        <v>0.1077319054133263</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642943</v>
       </c>
       <c r="N3">
-        <v>1.074801634005769</v>
+        <v>1.107498627573925</v>
       </c>
       <c r="O3">
-        <v>0.898058267835772</v>
+        <v>0.7109795688765316</v>
       </c>
       <c r="P3">
-        <v>1.03104599918223</v>
+        <v>0.91716565693814</v>
       </c>
       <c r="Q3">
-        <v>24.65619634488695</v>
+        <v>17.92198046293676</v>
       </c>
       <c r="R3">
-        <v>-93.08699457050156</v>
+        <v>-106.5279586928746</v>
       </c>
       <c r="S3">
-        <v>154.2225716896776</v>
+        <v>158.1868465769574</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.090554001197685</v>
+        <v>1.107498627561355</v>
       </c>
       <c r="O4">
-        <v>1.032377592742154</v>
+        <v>0.7109795688760385</v>
       </c>
       <c r="P4">
-        <v>1.076379949714971</v>
+        <v>0.9171656569531274</v>
       </c>
       <c r="Q4">
-        <v>28.24673185381133</v>
+        <v>17.92198046336739</v>
       </c>
       <c r="R4">
-        <v>-90.8947219078925</v>
+        <v>-106.5279586904451</v>
       </c>
       <c r="S4">
-        <v>151.3471471228641</v>
+        <v>158.1868465770594</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023849673</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O5">
-        <v>1.100000023821822</v>
+        <v>0.7109795688758743</v>
       </c>
       <c r="P5">
-        <v>1.100000023824615</v>
+        <v>0.9171656569581229</v>
       </c>
       <c r="Q5">
-        <v>29.99999999916123</v>
+        <v>17.92198046351093</v>
       </c>
       <c r="R5">
-        <v>-90.00000000150349</v>
+        <v>-106.5279586896352</v>
       </c>
       <c r="S5">
-        <v>150.0000000000779</v>
+        <v>158.1868465770935</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023849673</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O6">
-        <v>1.100000023821822</v>
+        <v>0.7109795688758743</v>
       </c>
       <c r="P6">
-        <v>1.100000023824615</v>
+        <v>0.9171656569581229</v>
       </c>
       <c r="Q6">
-        <v>29.99999999916123</v>
+        <v>17.92198046351093</v>
       </c>
       <c r="R6">
-        <v>-90.00000000150349</v>
+        <v>-106.5279586896352</v>
       </c>
       <c r="S6">
-        <v>150.0000000000779</v>
+        <v>158.1868465770935</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.093471052895229</v>
+        <v>1.095305273568648</v>
       </c>
       <c r="O2">
-        <v>1.060892992359799</v>
+        <v>1.018983908531544</v>
       </c>
       <c r="P2">
-        <v>1.087229555233819</v>
+        <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>29.01852472695075</v>
+        <v>27.70356907604971</v>
       </c>
       <c r="R2">
-        <v>-90.38582100567785</v>
+        <v>-91.92524130249696</v>
       </c>
       <c r="S2">
-        <v>150.7988511679325</v>
+        <v>151.4402860785753</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1512,55 +1512,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.540092364349599</v>
+        <v>2.010953897753577</v>
       </c>
       <c r="D3">
-        <v>2.540092364349599</v>
+        <v>2.010953897753577</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.33046020647508</v>
+        <v>23.2204954839191</v>
       </c>
       <c r="G3">
-        <v>29.33046020647508</v>
+        <v>23.2204954839191</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843665</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781327</v>
+        <v>0.1077319054063124</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133368</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822387</v>
+        <v>0.1077319054133263</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642943</v>
       </c>
       <c r="N3">
-        <v>1.074801634005769</v>
+        <v>1.107498627573925</v>
       </c>
       <c r="O3">
-        <v>0.898058267835772</v>
+        <v>0.7109795688765316</v>
       </c>
       <c r="P3">
-        <v>1.03104599918223</v>
+        <v>0.91716565693814</v>
       </c>
       <c r="Q3">
-        <v>24.65619634488695</v>
+        <v>17.92198046293676</v>
       </c>
       <c r="R3">
-        <v>-93.08699457050156</v>
+        <v>-106.5279586928746</v>
       </c>
       <c r="S3">
-        <v>154.2225716896776</v>
+        <v>158.1868465769574</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.090554001197685</v>
+        <v>1.107498627561355</v>
       </c>
       <c r="O4">
-        <v>1.032377592742154</v>
+        <v>0.7109795688760385</v>
       </c>
       <c r="P4">
-        <v>1.076379949714971</v>
+        <v>0.9171656569531274</v>
       </c>
       <c r="Q4">
-        <v>28.24673185381133</v>
+        <v>17.92198046336739</v>
       </c>
       <c r="R4">
-        <v>-90.8947219078925</v>
+        <v>-106.5279586904451</v>
       </c>
       <c r="S4">
-        <v>151.3471471228641</v>
+        <v>158.1868465770594</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023849673</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O5">
-        <v>1.100000023821822</v>
+        <v>0.7109795688758743</v>
       </c>
       <c r="P5">
-        <v>1.100000023824615</v>
+        <v>0.9171656569581229</v>
       </c>
       <c r="Q5">
-        <v>29.99999999916123</v>
+        <v>17.92198046351093</v>
       </c>
       <c r="R5">
-        <v>-90.00000000150349</v>
+        <v>-106.5279586896352</v>
       </c>
       <c r="S5">
-        <v>150.0000000000779</v>
+        <v>158.1868465770935</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023849673</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O6">
-        <v>1.100000023821822</v>
+        <v>0.7109795688758743</v>
       </c>
       <c r="P6">
-        <v>1.100000023824615</v>
+        <v>0.9171656569581229</v>
       </c>
       <c r="Q6">
-        <v>29.99999999916123</v>
+        <v>17.92198046351093</v>
       </c>
       <c r="R6">
-        <v>-90.00000000150349</v>
+        <v>-106.5279586896352</v>
       </c>
       <c r="S6">
-        <v>150.0000000000779</v>
+        <v>158.1868465770935</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070956723</v>
+        <v>0.9477232070952268</v>
       </c>
       <c r="O2">
-        <v>0.7936674232748916</v>
+        <v>0.7936674232739477</v>
       </c>
       <c r="P2">
-        <v>0.9574835309890599</v>
+        <v>0.9574835309888192</v>
       </c>
       <c r="Q2">
-        <v>24.75158797612442</v>
+        <v>24.75158797610128</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898421</v>
+        <v>-89.22492623897121</v>
       </c>
       <c r="S2">
-        <v>155.5173957043388</v>
+        <v>155.5173957043593</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1879,55 +1879,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.731342959647113</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="D3">
-        <v>8.731342959647113</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>100.8208641627841</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="G3">
-        <v>100.8208641627841</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="H3">
-        <v>10.65491498231262</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208113</v>
+        <v>2.173959091208257</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934765</v>
+        <v>0.1153518594840206</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698254</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829963</v>
+        <v>0.1153518594713462</v>
       </c>
       <c r="M3">
-        <v>0.925228692617285</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.8660254037851681</v>
+        <v>0.8660254037841224</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037846572</v>
+        <v>0.8660254037841824</v>
       </c>
       <c r="Q3">
-        <v>2.055190930227014E-10</v>
+        <v>3.070953155783125E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999998302</v>
+        <v>179.9999999999606</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9279607271631723</v>
+        <v>0.8660254037597849</v>
       </c>
       <c r="O4">
-        <v>0.6666666666333279</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9279607271030348</v>
+        <v>0.8660254038085196</v>
       </c>
       <c r="Q4">
-        <v>21.05172443368617</v>
+        <v>2.755392155813874E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552726</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755648917</v>
+        <v>179.9999999972358</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516724</v>
       </c>
       <c r="O5">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q5">
-        <v>29.9999999971298</v>
+        <v>3.663612511919851E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000000273</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516724</v>
       </c>
       <c r="O6">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q6">
-        <v>29.9999999971298</v>
+        <v>3.663624186873044E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000000273</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070956723</v>
+        <v>0.9477232070952268</v>
       </c>
       <c r="O2">
-        <v>0.7936674232748916</v>
+        <v>0.7936674232739477</v>
       </c>
       <c r="P2">
-        <v>0.9574835309890599</v>
+        <v>0.9574835309888192</v>
       </c>
       <c r="Q2">
-        <v>24.75158797612442</v>
+        <v>24.75158797610128</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898421</v>
+        <v>-89.22492623897121</v>
       </c>
       <c r="S2">
-        <v>155.5173957043388</v>
+        <v>155.5173957043593</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2246,55 +2246,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.731342959647113</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="D3">
-        <v>8.731342959647113</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>100.8208641627841</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="G3">
-        <v>100.8208641627841</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="H3">
-        <v>10.65491498231262</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208113</v>
+        <v>2.173959091208257</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934765</v>
+        <v>0.1153518594840206</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698254</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829963</v>
+        <v>0.1153518594713462</v>
       </c>
       <c r="M3">
-        <v>0.925228692617285</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.8660254037851681</v>
+        <v>0.8660254037841224</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037846572</v>
+        <v>0.8660254037841824</v>
       </c>
       <c r="Q3">
-        <v>2.055190930227014E-10</v>
+        <v>3.070953155783125E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999998302</v>
+        <v>179.9999999999606</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9279607271631723</v>
+        <v>0.8660254037597849</v>
       </c>
       <c r="O4">
-        <v>0.6666666666333279</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9279607271030348</v>
+        <v>0.8660254038085196</v>
       </c>
       <c r="Q4">
-        <v>21.05172443368617</v>
+        <v>2.755392155813874E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552726</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755648917</v>
+        <v>179.9999999972358</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516724</v>
       </c>
       <c r="O5">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q5">
-        <v>29.9999999971298</v>
+        <v>3.663612511919851E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000000273</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516724</v>
       </c>
       <c r="O6">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q6">
-        <v>29.9999999971298</v>
+        <v>3.663624186873044E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000000273</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.989047885536703</v>
+        <v>0.9949806626618444</v>
       </c>
       <c r="O2">
-        <v>0.9494298235603638</v>
+        <v>0.9175617791399002</v>
       </c>
       <c r="P2">
-        <v>0.9861504829633156</v>
+        <v>0.9648695716021194</v>
       </c>
       <c r="Q2">
-        <v>28.68335838929067</v>
+        <v>27.43727595412386</v>
       </c>
       <c r="R2">
-        <v>-90.19939743700446</v>
+        <v>-92.12802105335017</v>
       </c>
       <c r="S2">
-        <v>151.2245009153358</v>
+        <v>151.6304298035849</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2613,55 +2613,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.141126807982271</v>
+        <v>1.79573357821068</v>
       </c>
       <c r="D3">
-        <v>2.141126807982271</v>
+        <v>1.79573357821068</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.72360277915377</v>
+        <v>20.73534529545572</v>
       </c>
       <c r="G3">
-        <v>24.72360277915377</v>
+        <v>20.73534529545572</v>
       </c>
       <c r="H3">
-        <v>10.65491498231262</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208113</v>
+        <v>2.173959091208257</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934765</v>
+        <v>0.1153518594840206</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698254</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829963</v>
+        <v>0.1153518594713462</v>
       </c>
       <c r="M3">
-        <v>0.925228692617285</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.9581738593713774</v>
+        <v>1.005693895264115</v>
       </c>
       <c r="O3">
-        <v>0.7570026426538632</v>
+        <v>0.6348876951823897</v>
       </c>
       <c r="P3">
-        <v>0.9318955712475537</v>
+        <v>0.8307352055776825</v>
       </c>
       <c r="Q3">
-        <v>23.24976676176108</v>
+        <v>17.57011779536513</v>
       </c>
       <c r="R3">
-        <v>-92.17091768534125</v>
+        <v>-106.9885815758097</v>
       </c>
       <c r="S3">
-        <v>156.0542616190346</v>
+        <v>158.5647675412735</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9845599273626018</v>
+        <v>1.005693895251238</v>
       </c>
       <c r="O4">
-        <v>0.9188694917302177</v>
+        <v>0.6348876951946469</v>
       </c>
       <c r="P4">
-        <v>0.976115936171922</v>
+        <v>0.8307352055979549</v>
       </c>
       <c r="Q4">
-        <v>27.81475647128665</v>
+        <v>17.57011779629439</v>
       </c>
       <c r="R4">
-        <v>-90.59603200400132</v>
+        <v>-106.9885815722257</v>
       </c>
       <c r="S4">
-        <v>151.9234409806961</v>
+        <v>158.5647675409582</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000008532</v>
+        <v>1.005693895246946</v>
       </c>
       <c r="O5">
-        <v>0.9999999999888127</v>
+        <v>0.6348876951987328</v>
       </c>
       <c r="P5">
-        <v>0.9999999999862035</v>
+        <v>0.8307352056047125</v>
       </c>
       <c r="Q5">
-        <v>29.99999999934646</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R5">
-        <v>-90.00000000147362</v>
+        <v>-106.988581571031</v>
       </c>
       <c r="S5">
-        <v>149.9999999999076</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000008532</v>
+        <v>1.005693895246946</v>
       </c>
       <c r="O6">
-        <v>0.9999999999888127</v>
+        <v>0.6348876951987328</v>
       </c>
       <c r="P6">
-        <v>0.9999999999862035</v>
+        <v>0.8307352056047125</v>
       </c>
       <c r="Q6">
-        <v>29.99999999934646</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R6">
-        <v>-90.00000000147362</v>
+        <v>-106.988581571031</v>
       </c>
       <c r="S6">
-        <v>149.9999999999076</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.989047885536703</v>
+        <v>0.9949806626618444</v>
       </c>
       <c r="O2">
-        <v>0.9494298235603638</v>
+        <v>0.9175617791399002</v>
       </c>
       <c r="P2">
-        <v>0.9861504829633156</v>
+        <v>0.9648695716021194</v>
       </c>
       <c r="Q2">
-        <v>28.68335838929067</v>
+        <v>27.43727595412386</v>
       </c>
       <c r="R2">
-        <v>-90.19939743700446</v>
+        <v>-92.12802105335017</v>
       </c>
       <c r="S2">
-        <v>151.2245009153358</v>
+        <v>151.6304298035849</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2980,55 +2980,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.141126807982271</v>
+        <v>1.79573357821068</v>
       </c>
       <c r="D3">
-        <v>2.141126807982271</v>
+        <v>1.79573357821068</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.72360277915377</v>
+        <v>20.73534529545572</v>
       </c>
       <c r="G3">
-        <v>24.72360277915377</v>
+        <v>20.73534529545572</v>
       </c>
       <c r="H3">
-        <v>10.65491498231262</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208113</v>
+        <v>2.173959091208257</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934765</v>
+        <v>0.1153518594840206</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698254</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829963</v>
+        <v>0.1153518594713462</v>
       </c>
       <c r="M3">
-        <v>0.925228692617285</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.9581738593713774</v>
+        <v>1.005693895264115</v>
       </c>
       <c r="O3">
-        <v>0.7570026426538632</v>
+        <v>0.6348876951823897</v>
       </c>
       <c r="P3">
-        <v>0.9318955712475537</v>
+        <v>0.8307352055776825</v>
       </c>
       <c r="Q3">
-        <v>23.24976676176108</v>
+        <v>17.57011779536513</v>
       </c>
       <c r="R3">
-        <v>-92.17091768534125</v>
+        <v>-106.9885815758097</v>
       </c>
       <c r="S3">
-        <v>156.0542616190346</v>
+        <v>158.5647675412735</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9845599273626018</v>
+        <v>1.005693895251238</v>
       </c>
       <c r="O4">
-        <v>0.9188694917302177</v>
+        <v>0.6348876951946469</v>
       </c>
       <c r="P4">
-        <v>0.976115936171922</v>
+        <v>0.8307352055979549</v>
       </c>
       <c r="Q4">
-        <v>27.81475647128665</v>
+        <v>17.57011779629439</v>
       </c>
       <c r="R4">
-        <v>-90.59603200400132</v>
+        <v>-106.9885815722257</v>
       </c>
       <c r="S4">
-        <v>151.9234409806961</v>
+        <v>158.5647675409582</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000008532</v>
+        <v>1.005693895246946</v>
       </c>
       <c r="O5">
-        <v>0.9999999999888127</v>
+        <v>0.6348876951987328</v>
       </c>
       <c r="P5">
-        <v>0.9999999999862035</v>
+        <v>0.8307352056047125</v>
       </c>
       <c r="Q5">
-        <v>29.99999999934646</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R5">
-        <v>-90.00000000147362</v>
+        <v>-106.988581571031</v>
       </c>
       <c r="S5">
-        <v>149.9999999999076</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000008532</v>
+        <v>1.005693895246946</v>
       </c>
       <c r="O6">
-        <v>0.9999999999888127</v>
+        <v>0.6348876951987328</v>
       </c>
       <c r="P6">
-        <v>0.9999999999862035</v>
+        <v>0.8307352056047125</v>
       </c>
       <c r="Q6">
-        <v>29.99999999934646</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R6">
-        <v>-90.00000000147362</v>
+        <v>-106.988581571031</v>
       </c>
       <c r="S6">
-        <v>149.9999999999076</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.059185863761335</v>
+        <v>1.006400165160399</v>
       </c>
       <c r="O2">
-        <v>1.10000002384335</v>
+        <v>1.100000023846833</v>
       </c>
       <c r="P2">
-        <v>1.079249536297098</v>
+        <v>1.062983180491356</v>
       </c>
       <c r="Q2">
-        <v>30.05653648591828</v>
+        <v>29.57860611708429</v>
       </c>
       <c r="R2">
-        <v>-90.00000000000169</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S2">
-        <v>148.1509253301239</v>
+        <v>145.4251889501103</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.214312491366313</v>
+        <v>4.269054431591089</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>60.20969441058338</v>
+        <v>49.29479450528559</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3368,43 +3368,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495886</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843469</v>
       </c>
       <c r="J3">
-        <v>0.3928146973664265</v>
+        <v>0.1077319053180336</v>
       </c>
       <c r="K3">
-        <v>0.722622768924668</v>
+        <v>2.308438694642962</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822675</v>
+        <v>0.10773190541322</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203072</v>
+        <v>2.308438694642679</v>
       </c>
       <c r="N3">
-        <v>0.885664674454433</v>
+        <v>0.6144432972249565</v>
       </c>
       <c r="O3">
-        <v>1.100000023842849</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P3">
-        <v>1.01557787497317</v>
+        <v>1.019342441086347</v>
       </c>
       <c r="Q3">
-        <v>29.6194962833779</v>
+        <v>23.93807817703963</v>
       </c>
       <c r="R3">
-        <v>-90.0000000000347</v>
+        <v>-89.99999999999736</v>
       </c>
       <c r="S3">
-        <v>139.2989256783441</v>
+        <v>123.4311965199737</v>
       </c>
       <c r="T3">
-        <v>5.214312491366313</v>
+        <v>4.269054431591089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.028550265801832</v>
+        <v>0.614443297239881</v>
       </c>
       <c r="O4">
-        <v>1.10000002384184</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P4">
-        <v>1.067823870082014</v>
+        <v>1.019342441060879</v>
       </c>
       <c r="Q4">
-        <v>29.89078594690218</v>
+        <v>23.93807817967975</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000914</v>
+        <v>-89.99999999999773</v>
       </c>
       <c r="S4">
-        <v>146.6252388279147</v>
+        <v>123.4311965210633</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002381473</v>
+        <v>0.6144432972448578</v>
       </c>
       <c r="O5">
-        <v>1.100000023841335</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P5">
-        <v>1.10000002384949</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q5">
-        <v>29.99999999870822</v>
+        <v>23.93807818055971</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S5">
-        <v>149.9999999981486</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002381473</v>
+        <v>0.6144432972448579</v>
       </c>
       <c r="O6">
-        <v>1.100000023841335</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P6">
-        <v>1.10000002384949</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q6">
-        <v>29.99999999870822</v>
+        <v>23.93807818055971</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S6">
-        <v>149.9999999981486</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.059185863761335</v>
+        <v>1.006400165160399</v>
       </c>
       <c r="O2">
-        <v>1.10000002384335</v>
+        <v>1.100000023846833</v>
       </c>
       <c r="P2">
-        <v>1.079249536297098</v>
+        <v>1.062983180491356</v>
       </c>
       <c r="Q2">
-        <v>30.05653648591828</v>
+        <v>29.57860611708429</v>
       </c>
       <c r="R2">
-        <v>-90.00000000000169</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S2">
-        <v>148.1509253301239</v>
+        <v>145.4251889501103</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.214312491366313</v>
+        <v>4.269054431591089</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>60.20969441058338</v>
+        <v>49.29479450528559</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495886</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843469</v>
       </c>
       <c r="J3">
-        <v>0.3928146973664265</v>
+        <v>0.1077319053180336</v>
       </c>
       <c r="K3">
-        <v>0.722622768924668</v>
+        <v>2.308438694642962</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822675</v>
+        <v>0.10773190541322</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203072</v>
+        <v>2.308438694642679</v>
       </c>
       <c r="N3">
-        <v>0.885664674454433</v>
+        <v>0.6144432972249565</v>
       </c>
       <c r="O3">
-        <v>1.100000023842849</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P3">
-        <v>1.01557787497317</v>
+        <v>1.019342441086347</v>
       </c>
       <c r="Q3">
-        <v>29.6194962833779</v>
+        <v>23.93807817703963</v>
       </c>
       <c r="R3">
-        <v>-90.0000000000347</v>
+        <v>-89.99999999999736</v>
       </c>
       <c r="S3">
-        <v>139.2989256783441</v>
+        <v>123.4311965199737</v>
       </c>
       <c r="T3">
-        <v>5.214312491366313</v>
+        <v>4.269054431591089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.028550265801832</v>
+        <v>0.614443297239881</v>
       </c>
       <c r="O4">
-        <v>1.10000002384184</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P4">
-        <v>1.067823870082014</v>
+        <v>1.019342441060879</v>
       </c>
       <c r="Q4">
-        <v>29.89078594690218</v>
+        <v>23.93807817967975</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000914</v>
+        <v>-89.99999999999773</v>
       </c>
       <c r="S4">
-        <v>146.6252388279147</v>
+        <v>123.4311965210633</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002381473</v>
+        <v>0.6144432972448578</v>
       </c>
       <c r="O5">
-        <v>1.100000023841335</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P5">
-        <v>1.10000002384949</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q5">
-        <v>29.99999999870822</v>
+        <v>23.93807818055971</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S5">
-        <v>149.9999999981486</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002381473</v>
+        <v>0.6144432972448579</v>
       </c>
       <c r="O6">
-        <v>1.100000023841335</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P6">
-        <v>1.10000002384949</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q6">
-        <v>29.99999999870822</v>
+        <v>23.93807818055971</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S6">
-        <v>149.9999999981486</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089730009860671</v>
+        <v>1.072434586115867</v>
       </c>
       <c r="O2">
-        <v>1.100000023842208</v>
+        <v>1.100000023843344</v>
       </c>
       <c r="P2">
-        <v>1.092884001562818</v>
+        <v>1.089822796270588</v>
       </c>
       <c r="Q2">
-        <v>30.12185916088326</v>
+        <v>29.7961857047866</v>
       </c>
       <c r="R2">
-        <v>-89.9999999999977</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.5943547085473</v>
+        <v>148.6442299648718</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.34491635075194</v>
+        <v>1.265222117290822</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.52975634288324</v>
+        <v>14.60952660005049</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4138,43 +4138,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495886</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843469</v>
       </c>
       <c r="J3">
-        <v>0.3928146973664265</v>
+        <v>0.1077319053180336</v>
       </c>
       <c r="K3">
-        <v>0.722622768924668</v>
+        <v>2.308438694642962</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822675</v>
+        <v>0.10773190541322</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203072</v>
+        <v>2.308438694642679</v>
       </c>
       <c r="N3">
-        <v>1.045519213496414</v>
+        <v>0.9568525387400529</v>
       </c>
       <c r="O3">
-        <v>1.100000023841955</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P3">
-        <v>1.065539287962101</v>
+        <v>1.061233259727958</v>
       </c>
       <c r="Q3">
-        <v>30.50942616315902</v>
+        <v>28.34202686749199</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000595</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S3">
-        <v>147.710350043887</v>
+        <v>142.5196106427088</v>
       </c>
       <c r="T3">
-        <v>1.34491635075194</v>
+        <v>1.265222117290822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.081830416116111</v>
+        <v>0.9568525387446286</v>
       </c>
       <c r="O4">
-        <v>1.100000023841702</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P4">
-        <v>1.088322056522178</v>
+        <v>1.06123325972225</v>
       </c>
       <c r="Q4">
-        <v>30.16410722166162</v>
+        <v>28.3420268679895</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999956</v>
+        <v>-89.99999999999679</v>
       </c>
       <c r="S4">
-        <v>149.2529381104573</v>
+        <v>142.5196106431179</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023833598</v>
+        <v>0.9568525387461545</v>
       </c>
       <c r="O5">
-        <v>1.100000023841575</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P5">
-        <v>1.100000023841856</v>
+        <v>1.061233259720349</v>
       </c>
       <c r="Q5">
-        <v>29.99999999974202</v>
+        <v>28.34202686815532</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S5">
-        <v>149.9999999995057</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023833598</v>
+        <v>0.9568525387461545</v>
       </c>
       <c r="O6">
-        <v>1.100000023841575</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P6">
-        <v>1.100000023841856</v>
+        <v>1.061233259720349</v>
       </c>
       <c r="Q6">
-        <v>29.99999999974202</v>
+        <v>28.34202686815532</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S6">
-        <v>149.9999999995057</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8909260930493287</v>
+        <v>0.8909260930483733</v>
       </c>
       <c r="G2">
-        <v>0.713995696898965</v>
+        <v>0.7139956970177583</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4427,22 +4427,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>15.44302300401258</v>
+        <v>5.496310909000787</v>
       </c>
       <c r="C3">
-        <v>534.9620093080948</v>
+        <v>190.3977949716888</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799873</v>
+        <v>0.1077319053846547</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>61.47168303997802</v>
+        <v>87.32801736352476</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7333333491273745</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-6.157803613501171E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089730009860671</v>
+        <v>1.072434586115867</v>
       </c>
       <c r="O2">
-        <v>1.100000023842208</v>
+        <v>1.100000023843344</v>
       </c>
       <c r="P2">
-        <v>1.092884001562818</v>
+        <v>1.089822796270588</v>
       </c>
       <c r="Q2">
-        <v>30.12185916088326</v>
+        <v>29.7961857047866</v>
       </c>
       <c r="R2">
-        <v>-89.9999999999977</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.5943547085473</v>
+        <v>148.6442299648718</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.34491635075194</v>
+        <v>1.265222117290822</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.52975634288324</v>
+        <v>14.60952660005049</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4674,43 +4674,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495886</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843469</v>
       </c>
       <c r="J3">
-        <v>0.3928146973664265</v>
+        <v>0.1077319053180336</v>
       </c>
       <c r="K3">
-        <v>0.722622768924668</v>
+        <v>2.308438694642962</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822675</v>
+        <v>0.10773190541322</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203072</v>
+        <v>2.308438694642679</v>
       </c>
       <c r="N3">
-        <v>1.045519213496414</v>
+        <v>0.9568525387400529</v>
       </c>
       <c r="O3">
-        <v>1.100000023841955</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P3">
-        <v>1.065539287962101</v>
+        <v>1.061233259727958</v>
       </c>
       <c r="Q3">
-        <v>30.50942616315902</v>
+        <v>28.34202686749199</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000595</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S3">
-        <v>147.710350043887</v>
+        <v>142.5196106427088</v>
       </c>
       <c r="T3">
-        <v>1.34491635075194</v>
+        <v>1.265222117290822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.081830416116111</v>
+        <v>0.9568525387446286</v>
       </c>
       <c r="O4">
-        <v>1.100000023841702</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P4">
-        <v>1.088322056522178</v>
+        <v>1.06123325972225</v>
       </c>
       <c r="Q4">
-        <v>30.16410722166162</v>
+        <v>28.3420268679895</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999956</v>
+        <v>-89.99999999999679</v>
       </c>
       <c r="S4">
-        <v>149.2529381104573</v>
+        <v>142.5196106431179</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023833598</v>
+        <v>0.9568525387461545</v>
       </c>
       <c r="O5">
-        <v>1.100000023841575</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P5">
-        <v>1.100000023841856</v>
+        <v>1.061233259720349</v>
       </c>
       <c r="Q5">
-        <v>29.99999999974202</v>
+        <v>28.34202686815532</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S5">
-        <v>149.9999999995057</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023833598</v>
+        <v>0.9568525387461545</v>
       </c>
       <c r="O6">
-        <v>1.100000023841575</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P6">
-        <v>1.100000023841856</v>
+        <v>1.061233259720349</v>
       </c>
       <c r="Q6">
-        <v>29.99999999974202</v>
+        <v>28.34202686815532</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S6">
-        <v>149.9999999995057</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.967647082729331</v>
+        <v>0.93808824098085</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985705</v>
+        <v>0.9999999999958459</v>
       </c>
       <c r="P2">
-        <v>0.9854034822248159</v>
+        <v>0.9923448102284133</v>
       </c>
       <c r="Q2">
-        <v>29.9205079536484</v>
+        <v>28.50094802036746</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999535</v>
+        <v>-89.9999999999964</v>
       </c>
       <c r="S2">
-        <v>148.3315692262161</v>
+        <v>146.1769103581508</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.735918966862851</v>
+        <v>2.67586925722582</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>31.59167103998539</v>
+        <v>30.89827671951143</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5059,43 +5059,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231266</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208109</v>
+        <v>2.173959091208047</v>
       </c>
       <c r="J3">
-        <v>0.6750274778786785</v>
+        <v>0.1153518595129096</v>
       </c>
       <c r="K3">
-        <v>0.9252286926125765</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829698</v>
+        <v>0.1153518594711212</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172595</v>
+        <v>2.416397540675399</v>
       </c>
       <c r="N3">
-        <v>0.844137727958634</v>
+        <v>0.7181269486848424</v>
       </c>
       <c r="O3">
-        <v>1.000000000000357</v>
+        <v>0.9999999999989709</v>
       </c>
       <c r="P3">
-        <v>0.9454503575576398</v>
+        <v>1.021127642238569</v>
       </c>
       <c r="Q3">
-        <v>29.00775856660851</v>
+        <v>19.22824764083607</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999241</v>
+        <v>-89.99999999999777</v>
       </c>
       <c r="S3">
-        <v>141.3374147775727</v>
+        <v>131.608419096453</v>
       </c>
       <c r="T3">
-        <v>2.735918966862851</v>
+        <v>2.67586925722582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9480162386812545</v>
+        <v>0.718126948697527</v>
       </c>
       <c r="O4">
-        <v>1.000000000000435</v>
+        <v>0.9999999999989708</v>
       </c>
       <c r="P4">
-        <v>0.9793726293434915</v>
+        <v>1.02112764221727</v>
       </c>
       <c r="Q4">
-        <v>29.70550776858259</v>
+        <v>19.22824764309009</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999504</v>
+        <v>-89.99999999999825</v>
       </c>
       <c r="S4">
-        <v>147.222005507838</v>
+        <v>131.6084190977144</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999992797</v>
+        <v>0.7181269487017579</v>
       </c>
       <c r="O5">
-        <v>1.000000000000474</v>
+        <v>0.9999999999989709</v>
       </c>
       <c r="P5">
-        <v>1.000000000010747</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q5">
-        <v>29.99999999906515</v>
+        <v>19.22824764384135</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999848</v>
       </c>
       <c r="S5">
-        <v>149.9999999991462</v>
+        <v>131.6084190981349</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999992797</v>
+        <v>0.7181269487017579</v>
       </c>
       <c r="O6">
-        <v>1.000000000000474</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P6">
-        <v>1.000000000010747</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q6">
-        <v>29.99999999906515</v>
+        <v>19.22824764384135</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999848</v>
       </c>
       <c r="S6">
-        <v>149.9999999991462</v>
+        <v>131.6084190981349</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.967647082729331</v>
+        <v>0.93808824098085</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985705</v>
+        <v>0.9999999999958459</v>
       </c>
       <c r="P2">
-        <v>0.9854034822248159</v>
+        <v>0.9923448102284133</v>
       </c>
       <c r="Q2">
-        <v>29.9205079536484</v>
+        <v>28.50094802036746</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999535</v>
+        <v>-89.9999999999964</v>
       </c>
       <c r="S2">
-        <v>148.3315692262161</v>
+        <v>146.1769103581508</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.735918966862851</v>
+        <v>2.67586925722582</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>31.59167103998539</v>
+        <v>30.89827671951143</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5444,43 +5444,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231266</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208109</v>
+        <v>2.173959091208047</v>
       </c>
       <c r="J3">
-        <v>0.6750274778786785</v>
+        <v>0.1153518595129096</v>
       </c>
       <c r="K3">
-        <v>0.9252286926125765</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829698</v>
+        <v>0.1153518594711212</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172595</v>
+        <v>2.416397540675399</v>
       </c>
       <c r="N3">
-        <v>0.844137727958634</v>
+        <v>0.7181269486848424</v>
       </c>
       <c r="O3">
-        <v>1.000000000000357</v>
+        <v>0.9999999999989709</v>
       </c>
       <c r="P3">
-        <v>0.9454503575576398</v>
+        <v>1.021127642238569</v>
       </c>
       <c r="Q3">
-        <v>29.00775856660851</v>
+        <v>19.22824764083607</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999241</v>
+        <v>-89.99999999999777</v>
       </c>
       <c r="S3">
-        <v>141.3374147775727</v>
+        <v>131.608419096453</v>
       </c>
       <c r="T3">
-        <v>2.735918966862851</v>
+        <v>2.67586925722582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9480162386812545</v>
+        <v>0.718126948697527</v>
       </c>
       <c r="O4">
-        <v>1.000000000000435</v>
+        <v>0.9999999999989708</v>
       </c>
       <c r="P4">
-        <v>0.9793726293434915</v>
+        <v>1.02112764221727</v>
       </c>
       <c r="Q4">
-        <v>29.70550776858259</v>
+        <v>19.22824764309009</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999504</v>
+        <v>-89.99999999999825</v>
       </c>
       <c r="S4">
-        <v>147.222005507838</v>
+        <v>131.6084190977144</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999992797</v>
+        <v>0.7181269487017579</v>
       </c>
       <c r="O5">
-        <v>1.000000000000474</v>
+        <v>0.9999999999989709</v>
       </c>
       <c r="P5">
-        <v>1.000000000010747</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q5">
-        <v>29.99999999906515</v>
+        <v>19.22824764384135</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999848</v>
       </c>
       <c r="S5">
-        <v>149.9999999991462</v>
+        <v>131.6084190981349</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999992797</v>
+        <v>0.7181269487017579</v>
       </c>
       <c r="O6">
-        <v>1.000000000000474</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P6">
-        <v>1.000000000010747</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q6">
-        <v>29.99999999906515</v>
+        <v>19.22824764384135</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999848</v>
       </c>
       <c r="S6">
-        <v>149.9999999991462</v>
+        <v>131.6084190981349</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9879750830742445</v>
+        <v>0.9752784142044824</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996338</v>
+        <v>0.9999999999985698</v>
       </c>
       <c r="P2">
-        <v>0.991378219381125</v>
+        <v>0.9932418816976996</v>
       </c>
       <c r="Q2">
-        <v>30.17724365988025</v>
+        <v>29.63976589252149</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999709</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.4862132965908</v>
+        <v>148.5870138120459</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.048670561241414</v>
+        <v>1.019575804880167</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.10900461647932</v>
+        <v>11.77304730813587</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5829,43 +5829,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231266</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208109</v>
+        <v>2.173959091208047</v>
       </c>
       <c r="J3">
-        <v>0.6750274778786785</v>
+        <v>0.1153518595129096</v>
       </c>
       <c r="K3">
-        <v>0.9252286926125765</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829698</v>
+        <v>0.1153518594711212</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172595</v>
+        <v>2.416397540675399</v>
       </c>
       <c r="N3">
-        <v>0.9411807240271658</v>
+        <v>0.8827270761415116</v>
       </c>
       <c r="O3">
-        <v>1.000000000000131</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P3">
-        <v>0.9614429953421808</v>
+        <v>0.9794355975913516</v>
       </c>
       <c r="Q3">
-        <v>30.71494733696597</v>
+        <v>27.67272062331512</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000092</v>
+        <v>-89.99999999999682</v>
       </c>
       <c r="S3">
-        <v>147.3095267505598</v>
+        <v>142.9557126455962</v>
       </c>
       <c r="T3">
-        <v>1.048670561241414</v>
+        <v>1.019575804880166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9803769661525122</v>
+        <v>0.8827270761491318</v>
       </c>
       <c r="O4">
-        <v>1.000000000000053</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P4">
-        <v>0.9869090578375679</v>
+        <v>0.9794355975864569</v>
       </c>
       <c r="Q4">
-        <v>30.22878239728844</v>
+        <v>27.67272062389994</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999788</v>
+        <v>-89.999999999997</v>
       </c>
       <c r="S4">
-        <v>149.1266043354938</v>
+        <v>142.9557126462243</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999954067</v>
+        <v>0.882727076151673</v>
       </c>
       <c r="O5">
-        <v>1.000000000000014</v>
+        <v>0.9999999999998312</v>
       </c>
       <c r="P5">
-        <v>1.000000000002164</v>
+        <v>0.9794355975848256</v>
       </c>
       <c r="Q5">
-        <v>29.99999999970415</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S5">
-        <v>149.999999999618</v>
+        <v>142.9557126464337</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999954067</v>
+        <v>0.882727076151673</v>
       </c>
       <c r="O6">
-        <v>1.000000000000014</v>
+        <v>0.9999999999998312</v>
       </c>
       <c r="P6">
-        <v>1.000000000002164</v>
+        <v>0.9794355975848256</v>
       </c>
       <c r="Q6">
-        <v>29.99999999970415</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S6">
-        <v>149.999999999618</v>
+        <v>142.9557126464337</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9879750830742445</v>
+        <v>0.9752784142044824</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996338</v>
+        <v>0.9999999999985698</v>
       </c>
       <c r="P2">
-        <v>0.991378219381125</v>
+        <v>0.9932418816976996</v>
       </c>
       <c r="Q2">
-        <v>30.17724365988025</v>
+        <v>29.63976589252149</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999709</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.4862132965908</v>
+        <v>148.5870138120459</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.048670561241414</v>
+        <v>1.019575804880167</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.10900461647932</v>
+        <v>11.77304730813587</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6214,43 +6214,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231266</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208109</v>
+        <v>2.173959091208047</v>
       </c>
       <c r="J3">
-        <v>0.6750274778786785</v>
+        <v>0.1153518595129096</v>
       </c>
       <c r="K3">
-        <v>0.9252286926125765</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829698</v>
+        <v>0.1153518594711212</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172595</v>
+        <v>2.416397540675399</v>
       </c>
       <c r="N3">
-        <v>0.9411807240271658</v>
+        <v>0.8827270761415116</v>
       </c>
       <c r="O3">
-        <v>1.000000000000131</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P3">
-        <v>0.9614429953421808</v>
+        <v>0.9794355975913516</v>
       </c>
       <c r="Q3">
-        <v>30.71494733696597</v>
+        <v>27.67272062331512</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000092</v>
+        <v>-89.99999999999682</v>
       </c>
       <c r="S3">
-        <v>147.3095267505598</v>
+        <v>142.9557126455962</v>
       </c>
       <c r="T3">
-        <v>1.048670561241414</v>
+        <v>1.019575804880166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9803769661525122</v>
+        <v>0.8827270761491318</v>
       </c>
       <c r="O4">
-        <v>1.000000000000053</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P4">
-        <v>0.9869090578375679</v>
+        <v>0.9794355975864569</v>
       </c>
       <c r="Q4">
-        <v>30.22878239728844</v>
+        <v>27.67272062389994</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999788</v>
+        <v>-89.999999999997</v>
       </c>
       <c r="S4">
-        <v>149.1266043354938</v>
+        <v>142.9557126462243</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999954067</v>
+        <v>0.882727076151673</v>
       </c>
       <c r="O5">
-        <v>1.000000000000014</v>
+        <v>0.9999999999998312</v>
       </c>
       <c r="P5">
-        <v>1.000000000002164</v>
+        <v>0.9794355975848256</v>
       </c>
       <c r="Q5">
-        <v>29.99999999970415</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S5">
-        <v>149.999999999618</v>
+        <v>142.9557126464337</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999954067</v>
+        <v>0.882727076151673</v>
       </c>
       <c r="O6">
-        <v>1.000000000000014</v>
+        <v>0.9999999999998312</v>
       </c>
       <c r="P6">
-        <v>1.000000000002164</v>
+        <v>0.9794355975848256</v>
       </c>
       <c r="Q6">
-        <v>29.99999999970415</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S6">
-        <v>149.999999999618</v>
+        <v>142.9557126464337</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.034891897403129</v>
+        <v>1.01842373929984</v>
       </c>
       <c r="O2">
-        <v>0.8909260930525941</v>
+        <v>0.8909260930534473</v>
       </c>
       <c r="P2">
-        <v>1.050657798437081</v>
+        <v>1.050632341056126</v>
       </c>
       <c r="Q2">
-        <v>25.08309126056915</v>
+        <v>24.33474940422531</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314653</v>
+        <v>-89.2860043031224</v>
       </c>
       <c r="S2">
-        <v>154.5112905585385</v>
+        <v>153.3531572010471</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6584,58 +6584,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>14.34577989258121</v>
+        <v>6.029934716893444</v>
       </c>
       <c r="D3">
-        <v>12.51066096599708</v>
+        <v>3.634748069092453</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>165.6507976543376</v>
+        <v>69.627688639886</v>
       </c>
       <c r="G3">
-        <v>144.4606695291712</v>
+        <v>41.97045552254</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843665</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781327</v>
+        <v>0.1077319054063124</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133368</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822387</v>
+        <v>0.1077319054133263</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642943</v>
       </c>
       <c r="N3">
-        <v>0.9039864911153994</v>
+        <v>0.8708416185467565</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9039864911159127</v>
+        <v>0.8708416185493206</v>
       </c>
       <c r="Q3">
-        <v>-2.40202428962954</v>
+        <v>-9.283488353327417</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>177.5979757104278</v>
+        <v>170.7165116466594</v>
       </c>
       <c r="T3">
-        <v>3.029059022104102</v>
+        <v>2.917997876526144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.00085880502582</v>
+        <v>0.8708416185120122</v>
       </c>
       <c r="O4">
-        <v>0.7333333491374061</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.01006972515839</v>
+        <v>0.8708416185750355</v>
       </c>
       <c r="Q4">
-        <v>20.7158684424472</v>
+        <v>-9.283488351423893</v>
       </c>
       <c r="R4">
-        <v>-90.00000000624975</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>157.9438950505057</v>
+        <v>170.7165116460672</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023855364</v>
+        <v>0.870841618500429</v>
       </c>
       <c r="O5">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836062</v>
       </c>
       <c r="Q5">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789398</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000010233</v>
+        <v>170.7165116458698</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023855364</v>
+        <v>0.870841618500429</v>
       </c>
       <c r="O6">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836063</v>
       </c>
       <c r="Q6">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789415</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000010233</v>
+        <v>170.7165116458698</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.034891897403129</v>
+        <v>1.01842373929984</v>
       </c>
       <c r="O2">
-        <v>0.8909260930525941</v>
+        <v>0.8909260930534473</v>
       </c>
       <c r="P2">
-        <v>1.050657798437081</v>
+        <v>1.050632341056126</v>
       </c>
       <c r="Q2">
-        <v>25.08309126056915</v>
+        <v>24.33474940422531</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314653</v>
+        <v>-89.2860043031224</v>
       </c>
       <c r="S2">
-        <v>154.5112905585385</v>
+        <v>153.3531572010471</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6969,58 +6969,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>14.34577989258121</v>
+        <v>6.029934716893444</v>
       </c>
       <c r="D3">
-        <v>12.51066096599708</v>
+        <v>3.634748069092453</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>165.6507976543376</v>
+        <v>69.627688639886</v>
       </c>
       <c r="G3">
-        <v>144.4606695291712</v>
+        <v>41.97045552254</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843665</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781327</v>
+        <v>0.1077319054063124</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133368</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822387</v>
+        <v>0.1077319054133263</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642943</v>
       </c>
       <c r="N3">
-        <v>0.9039864911153994</v>
+        <v>0.8708416185467565</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9039864911159127</v>
+        <v>0.8708416185493206</v>
       </c>
       <c r="Q3">
-        <v>-2.40202428962954</v>
+        <v>-9.283488353327417</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>177.5979757104278</v>
+        <v>170.7165116466594</v>
       </c>
       <c r="T3">
-        <v>3.029059022104102</v>
+        <v>2.917997876526144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.00085880502582</v>
+        <v>0.8708416185120122</v>
       </c>
       <c r="O4">
-        <v>0.7333333491374061</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.01006972515839</v>
+        <v>0.8708416185750355</v>
       </c>
       <c r="Q4">
-        <v>20.7158684424472</v>
+        <v>-9.283488351423893</v>
       </c>
       <c r="R4">
-        <v>-90.00000000624975</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>157.9438950505057</v>
+        <v>170.7165116460672</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023855364</v>
+        <v>0.870841618500429</v>
       </c>
       <c r="O5">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836062</v>
       </c>
       <c r="Q5">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789398</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000010233</v>
+        <v>170.7165116458698</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023855364</v>
+        <v>0.870841618500429</v>
       </c>
       <c r="O6">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836063</v>
       </c>
       <c r="Q6">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789415</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000010233</v>
+        <v>170.7165116458698</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.092177903652934</v>
+        <v>1.088142600877449</v>
       </c>
       <c r="O2">
-        <v>1.078560055256258</v>
+        <v>1.052967690033747</v>
       </c>
       <c r="P2">
-        <v>1.089909805515241</v>
+        <v>1.073420542971325</v>
       </c>
       <c r="Q2">
-        <v>29.49023960247584</v>
+        <v>28.40667986457017</v>
       </c>
       <c r="R2">
-        <v>-90.23666155032254</v>
+        <v>-91.44286082238048</v>
       </c>
       <c r="S2">
-        <v>150.2459170073016</v>
+        <v>150.106877722634</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7354,58 +7354,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.59659452480627</v>
+        <v>1.484195649880106</v>
       </c>
       <c r="D3">
-        <v>1.421579535282145</v>
+        <v>1.211666286235113</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.43588557367165</v>
+        <v>17.13801515976701</v>
       </c>
       <c r="G3">
-        <v>16.41498654739219</v>
+        <v>13.99111713051673</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843665</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781327</v>
+        <v>0.1077319054063124</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133368</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822387</v>
+        <v>0.1077319054133263</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642943</v>
       </c>
       <c r="N3">
-        <v>1.06278335912045</v>
+        <v>1.056537320427519</v>
       </c>
       <c r="O3">
-        <v>0.9891793628955214</v>
+        <v>0.8723446855807017</v>
       </c>
       <c r="P3">
-        <v>1.045949625268017</v>
+        <v>0.9600343016410946</v>
       </c>
       <c r="Q3">
-        <v>27.13325974900417</v>
+        <v>21.17428113068096</v>
       </c>
       <c r="R3">
-        <v>-91.69953437667313</v>
+        <v>-100.0510163396145</v>
       </c>
       <c r="S3">
-        <v>151.1900303807082</v>
+        <v>150.1850824569241</v>
       </c>
       <c r="T3">
-        <v>1.145512290512554</v>
+        <v>1.119849020604905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.087295498353202</v>
+        <v>1.056537320420606</v>
       </c>
       <c r="O4">
-        <v>1.062959741151789</v>
+        <v>0.872344685580399</v>
       </c>
       <c r="P4">
-        <v>1.08193225533879</v>
+        <v>0.96003430164727</v>
       </c>
       <c r="Q4">
-        <v>29.0663109843595</v>
+        <v>21.17428113115402</v>
       </c>
       <c r="R4">
-        <v>-90.52711984668144</v>
+        <v>-100.0510163383996</v>
       </c>
       <c r="S4">
-        <v>150.3834595079708</v>
+        <v>150.1850824573215</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002384269</v>
+        <v>1.056537320418302</v>
       </c>
       <c r="O5">
-        <v>1.100000023830772</v>
+        <v>0.8723446855802981</v>
       </c>
       <c r="P5">
-        <v>1.100000023832296</v>
+        <v>0.9600343016493282</v>
       </c>
       <c r="Q5">
-        <v>29.99999999942158</v>
+        <v>21.17428113131172</v>
       </c>
       <c r="R5">
-        <v>-90.00000000084032</v>
+        <v>-100.0510163379946</v>
       </c>
       <c r="S5">
-        <v>149.9999999998209</v>
+        <v>150.185082457454</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002384269</v>
+        <v>1.056537320418301</v>
       </c>
       <c r="O6">
-        <v>1.100000023830772</v>
+        <v>0.8723446855802981</v>
       </c>
       <c r="P6">
-        <v>1.100000023832296</v>
+        <v>0.9600343016493282</v>
       </c>
       <c r="Q6">
-        <v>29.99999999942158</v>
+        <v>21.17428113131172</v>
       </c>
       <c r="R6">
-        <v>-90.00000000084032</v>
+        <v>-100.0510163379946</v>
       </c>
       <c r="S6">
-        <v>149.9999999998209</v>
+        <v>150.185082457454</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.092177903652934</v>
+        <v>1.088142600877449</v>
       </c>
       <c r="O2">
-        <v>1.078560055256258</v>
+        <v>1.052967690033747</v>
       </c>
       <c r="P2">
-        <v>1.089909805515241</v>
+        <v>1.073420542971325</v>
       </c>
       <c r="Q2">
-        <v>29.49023960247584</v>
+        <v>28.40667986457017</v>
       </c>
       <c r="R2">
-        <v>-90.23666155032254</v>
+        <v>-91.44286082238048</v>
       </c>
       <c r="S2">
-        <v>150.2459170073016</v>
+        <v>150.106877722634</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7739,58 +7739,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.59659452480627</v>
+        <v>1.484195649880106</v>
       </c>
       <c r="D3">
-        <v>1.421579535282145</v>
+        <v>1.211666286235113</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.43588557367165</v>
+        <v>17.13801515976701</v>
       </c>
       <c r="G3">
-        <v>16.41498654739219</v>
+        <v>13.99111713051673</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843665</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781327</v>
+        <v>0.1077319054063124</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133368</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822387</v>
+        <v>0.1077319054133263</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642943</v>
       </c>
       <c r="N3">
-        <v>1.06278335912045</v>
+        <v>1.056537320427519</v>
       </c>
       <c r="O3">
-        <v>0.9891793628955214</v>
+        <v>0.8723446855807017</v>
       </c>
       <c r="P3">
-        <v>1.045949625268017</v>
+        <v>0.9600343016410946</v>
       </c>
       <c r="Q3">
-        <v>27.13325974900417</v>
+        <v>21.17428113068096</v>
       </c>
       <c r="R3">
-        <v>-91.69953437667313</v>
+        <v>-100.0510163396145</v>
       </c>
       <c r="S3">
-        <v>151.1900303807082</v>
+        <v>150.1850824569241</v>
       </c>
       <c r="T3">
-        <v>1.145512290512554</v>
+        <v>1.119849020604905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.087295498353202</v>
+        <v>1.056537320420606</v>
       </c>
       <c r="O4">
-        <v>1.062959741151789</v>
+        <v>0.872344685580399</v>
       </c>
       <c r="P4">
-        <v>1.08193225533879</v>
+        <v>0.96003430164727</v>
       </c>
       <c r="Q4">
-        <v>29.0663109843595</v>
+        <v>21.17428113115402</v>
       </c>
       <c r="R4">
-        <v>-90.52711984668144</v>
+        <v>-100.0510163383996</v>
       </c>
       <c r="S4">
-        <v>150.3834595079708</v>
+        <v>150.1850824573215</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002384269</v>
+        <v>1.056537320418302</v>
       </c>
       <c r="O5">
-        <v>1.100000023830772</v>
+        <v>0.8723446855802981</v>
       </c>
       <c r="P5">
-        <v>1.100000023832296</v>
+        <v>0.9600343016493282</v>
       </c>
       <c r="Q5">
-        <v>29.99999999942158</v>
+        <v>21.17428113131172</v>
       </c>
       <c r="R5">
-        <v>-90.00000000084032</v>
+        <v>-100.0510163379946</v>
       </c>
       <c r="S5">
-        <v>149.9999999998209</v>
+        <v>150.185082457454</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002384269</v>
+        <v>1.056537320418301</v>
       </c>
       <c r="O6">
-        <v>1.100000023830772</v>
+        <v>0.8723446855802981</v>
       </c>
       <c r="P6">
-        <v>1.100000023832296</v>
+        <v>0.9600343016493282</v>
       </c>
       <c r="Q6">
-        <v>29.99999999942158</v>
+        <v>21.17428113131172</v>
       </c>
       <c r="R6">
-        <v>-90.00000000084032</v>
+        <v>-100.0510163379946</v>
       </c>
       <c r="S6">
-        <v>149.9999999998209</v>
+        <v>150.185082457454</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9388786017913194</v>
+        <v>0.9334935060169504</v>
       </c>
       <c r="O2">
-        <v>0.7936674232744091</v>
+        <v>0.7936674232727595</v>
       </c>
       <c r="P2">
-        <v>0.9532466953638354</v>
+        <v>0.9580977882541356</v>
       </c>
       <c r="Q2">
-        <v>24.63022450782292</v>
+        <v>23.95979098161584</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898491</v>
+        <v>-89.224926238975</v>
       </c>
       <c r="S2">
-        <v>155.0366063403185</v>
+        <v>154.3650519625827</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8124,58 +8124,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.246283753841018</v>
+        <v>4.864249469156539</v>
       </c>
       <c r="D3">
-        <v>8.255469890763209</v>
+        <v>3.420873634629112</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>106.7668882856755</v>
+        <v>56.16751480846045</v>
       </c>
       <c r="G3">
-        <v>95.32595527437978</v>
+        <v>39.50084627633623</v>
       </c>
       <c r="H3">
-        <v>10.65491498231262</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208113</v>
+        <v>2.173959091208257</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934765</v>
+        <v>0.1153518594840206</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698254</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829963</v>
+        <v>0.1153518594713462</v>
       </c>
       <c r="M3">
-        <v>0.925228692617285</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.8331003823469922</v>
+        <v>0.8383203831023534</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8331003823465952</v>
+        <v>0.8383203831022646</v>
       </c>
       <c r="Q3">
-        <v>-1.955830454851813</v>
+        <v>-5.989874420578567</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>178.0441695447659</v>
+        <v>174.0101255793317</v>
       </c>
       <c r="T3">
-        <v>1.532218402085469</v>
+        <v>1.541818903287513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9141756166360203</v>
+        <v>0.8383203830713345</v>
       </c>
       <c r="O4">
-        <v>0.6666666666332807</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.921061297676768</v>
+        <v>0.838320383128255</v>
       </c>
       <c r="Q4">
-        <v>20.74808740558402</v>
+        <v>-5.989874417367663</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552933</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.1491777102416</v>
+        <v>174.010125577291</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609931</v>
       </c>
       <c r="O5">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369178</v>
       </c>
       <c r="Q5">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297383</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999998053</v>
+        <v>174.0101255766108</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609931</v>
       </c>
       <c r="O6">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369178</v>
       </c>
       <c r="Q6">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297388</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999998053</v>
+        <v>174.0101255766108</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.078560055256107</v>
+        <v>1.052967690033817</v>
       </c>
       <c r="G2">
-        <v>-0.2366615503256251</v>
+        <v>-1.442860822386479</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8428,22 +8428,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.615323135457774</v>
+        <v>1.424532906338662</v>
       </c>
       <c r="C3">
-        <v>55.95643482508657</v>
+        <v>49.34726741664637</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799873</v>
+        <v>0.1077319053846547</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="F3">
-        <v>0.9891793628950201</v>
+        <v>0.872344685579278</v>
       </c>
       <c r="G3">
-        <v>45.00000000001764</v>
+        <v>45.00000000014265</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.062959741151375</v>
+        <v>0.8723446855789757</v>
       </c>
       <c r="G4">
-        <v>-0.52711984668414</v>
+        <v>-10.05101633843851</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8486,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023830402</v>
+        <v>0.8723446855788749</v>
       </c>
       <c r="G5">
-        <v>-8.439701576506097E-10</v>
+        <v>-10.05101633803358</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023830402</v>
+        <v>0.8723446855788749</v>
       </c>
       <c r="G6">
-        <v>-8.439701576506091E-10</v>
+        <v>-10.05101633803358</v>
       </c>
     </row>
   </sheetData>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9388786017913194</v>
+        <v>0.9334935060169504</v>
       </c>
       <c r="O2">
-        <v>0.7936674232744091</v>
+        <v>0.7936674232727595</v>
       </c>
       <c r="P2">
-        <v>0.9532466953638354</v>
+        <v>0.9580977882541356</v>
       </c>
       <c r="Q2">
-        <v>24.63022450782292</v>
+        <v>23.95979098161584</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898491</v>
+        <v>-89.224926238975</v>
       </c>
       <c r="S2">
-        <v>155.0366063403185</v>
+        <v>154.3650519625827</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8660,58 +8660,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.246283753841018</v>
+        <v>4.864249469156539</v>
       </c>
       <c r="D3">
-        <v>8.255469890763209</v>
+        <v>3.420873634629112</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>106.7668882856755</v>
+        <v>56.16751480846045</v>
       </c>
       <c r="G3">
-        <v>95.32595527437978</v>
+        <v>39.50084627633623</v>
       </c>
       <c r="H3">
-        <v>10.65491498231262</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208113</v>
+        <v>2.173959091208257</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934765</v>
+        <v>0.1153518594840206</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698254</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829963</v>
+        <v>0.1153518594713462</v>
       </c>
       <c r="M3">
-        <v>0.925228692617285</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.8331003823469922</v>
+        <v>0.8383203831023534</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8331003823465952</v>
+        <v>0.8383203831022646</v>
       </c>
       <c r="Q3">
-        <v>-1.955830454851813</v>
+        <v>-5.989874420578567</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>178.0441695447659</v>
+        <v>174.0101255793317</v>
       </c>
       <c r="T3">
-        <v>1.532218402085469</v>
+        <v>1.541818903287513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9141756166360203</v>
+        <v>0.8383203830713345</v>
       </c>
       <c r="O4">
-        <v>0.6666666666332807</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.921061297676768</v>
+        <v>0.838320383128255</v>
       </c>
       <c r="Q4">
-        <v>20.74808740558402</v>
+        <v>-5.989874417367663</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552933</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.1491777102416</v>
+        <v>174.010125577291</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609931</v>
       </c>
       <c r="O5">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369178</v>
       </c>
       <c r="Q5">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297383</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999998053</v>
+        <v>174.0101255766108</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609931</v>
       </c>
       <c r="O6">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369178</v>
       </c>
       <c r="Q6">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297388</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999998053</v>
+        <v>174.0101255766108</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9890910045655699</v>
+        <v>0.9906071603375056</v>
       </c>
       <c r="O2">
-        <v>0.971246971741263</v>
+        <v>0.951784480252284</v>
       </c>
       <c r="P2">
-        <v>0.9888453263640931</v>
+        <v>0.975085074261915</v>
       </c>
       <c r="Q2">
-        <v>29.2829555776831</v>
+        <v>28.16032573231858</v>
       </c>
       <c r="R2">
-        <v>-90.13866686470811</v>
+        <v>-91.61401138281261</v>
       </c>
       <c r="S2">
-        <v>150.4649615367157</v>
+        <v>150.2468850048779</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9045,58 +9045,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.398337465277359</v>
+        <v>1.332307398888864</v>
       </c>
       <c r="D3">
-        <v>1.163220233293772</v>
+        <v>1.011025655018907</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.14661023991644</v>
+        <v>15.38416070783632</v>
       </c>
       <c r="G3">
-        <v>13.43171029637957</v>
+        <v>11.67431868165567</v>
       </c>
       <c r="H3">
-        <v>10.65491498231262</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208113</v>
+        <v>2.173959091208257</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934765</v>
+        <v>0.1153518594840206</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698254</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829963</v>
+        <v>0.1153518594713462</v>
       </c>
       <c r="M3">
-        <v>0.925228692617285</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.9520850263111387</v>
+        <v>0.9727552564516329</v>
       </c>
       <c r="O3">
-        <v>0.8618494835872509</v>
+        <v>0.7848521014138393</v>
       </c>
       <c r="P3">
-        <v>0.9446139127322337</v>
+        <v>0.8786293331945181</v>
       </c>
       <c r="Q3">
-        <v>26.23196055764161</v>
+        <v>20.76298901305287</v>
       </c>
       <c r="R3">
-        <v>-91.23559782375305</v>
+        <v>-100.4045966786944</v>
       </c>
       <c r="S3">
-        <v>152.1817448625048</v>
+        <v>150.9154060545281</v>
       </c>
       <c r="T3">
-        <v>0.8213292257179381</v>
+        <v>0.8163878929598345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9835634445070006</v>
+        <v>0.9727552564449908</v>
       </c>
       <c r="O4">
-        <v>0.9539031440605305</v>
+        <v>0.784852101421415</v>
       </c>
       <c r="P4">
-        <v>0.9813829289617835</v>
+        <v>0.8786293332052801</v>
       </c>
       <c r="Q4">
-        <v>28.78497002029057</v>
+        <v>20.76298901387266</v>
       </c>
       <c r="R4">
-        <v>-90.37209378507785</v>
+        <v>-100.4045966769022</v>
       </c>
       <c r="S4">
-        <v>150.699849065203</v>
+        <v>150.9154060548271</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.00000000000323</v>
+        <v>0.9727552564427761</v>
       </c>
       <c r="O5">
-        <v>0.999999999993707</v>
+        <v>0.7848521014239401</v>
       </c>
       <c r="P5">
-        <v>0.9999999999931208</v>
+        <v>0.8786293332088672</v>
       </c>
       <c r="Q5">
-        <v>29.99999999950569</v>
+        <v>20.76298901414594</v>
       </c>
       <c r="R5">
-        <v>-90.00000000084326</v>
+        <v>-100.4045966763048</v>
       </c>
       <c r="S5">
-        <v>149.9999999997964</v>
+        <v>150.9154060549267</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.00000000000323</v>
+        <v>0.9727552564427761</v>
       </c>
       <c r="O6">
-        <v>0.999999999993707</v>
+        <v>0.7848521014239402</v>
       </c>
       <c r="P6">
-        <v>0.9999999999931208</v>
+        <v>0.8786293332088672</v>
       </c>
       <c r="Q6">
-        <v>29.99999999950569</v>
+        <v>20.76298901414594</v>
       </c>
       <c r="R6">
-        <v>-90.00000000084326</v>
+        <v>-100.4045966763048</v>
       </c>
       <c r="S6">
-        <v>149.9999999997964</v>
+        <v>150.9154060549267</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9890910045655699</v>
+        <v>0.9906071603375056</v>
       </c>
       <c r="O2">
-        <v>0.971246971741263</v>
+        <v>0.951784480252284</v>
       </c>
       <c r="P2">
-        <v>0.9888453263640931</v>
+        <v>0.975085074261915</v>
       </c>
       <c r="Q2">
-        <v>29.2829555776831</v>
+        <v>28.16032573231858</v>
       </c>
       <c r="R2">
-        <v>-90.13866686470811</v>
+        <v>-91.61401138281261</v>
       </c>
       <c r="S2">
-        <v>150.4649615367157</v>
+        <v>150.2468850048779</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9430,58 +9430,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.398337465277359</v>
+        <v>1.332307398888864</v>
       </c>
       <c r="D3">
-        <v>1.163220233293772</v>
+        <v>1.011025655018907</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.14661023991644</v>
+        <v>15.38416070783632</v>
       </c>
       <c r="G3">
-        <v>13.43171029637957</v>
+        <v>11.67431868165567</v>
       </c>
       <c r="H3">
-        <v>10.65491498231262</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208113</v>
+        <v>2.173959091208257</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934765</v>
+        <v>0.1153518594840206</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698254</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829963</v>
+        <v>0.1153518594713462</v>
       </c>
       <c r="M3">
-        <v>0.925228692617285</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.9520850263111387</v>
+        <v>0.9727552564516329</v>
       </c>
       <c r="O3">
-        <v>0.8618494835872509</v>
+        <v>0.7848521014138393</v>
       </c>
       <c r="P3">
-        <v>0.9446139127322337</v>
+        <v>0.8786293331945181</v>
       </c>
       <c r="Q3">
-        <v>26.23196055764161</v>
+        <v>20.76298901305287</v>
       </c>
       <c r="R3">
-        <v>-91.23559782375305</v>
+        <v>-100.4045966786944</v>
       </c>
       <c r="S3">
-        <v>152.1817448625048</v>
+        <v>150.9154060545281</v>
       </c>
       <c r="T3">
-        <v>0.8213292257179381</v>
+        <v>0.8163878929598345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9835634445070006</v>
+        <v>0.9727552564449908</v>
       </c>
       <c r="O4">
-        <v>0.9539031440605305</v>
+        <v>0.784852101421415</v>
       </c>
       <c r="P4">
-        <v>0.9813829289617835</v>
+        <v>0.8786293332052801</v>
       </c>
       <c r="Q4">
-        <v>28.78497002029057</v>
+        <v>20.76298901387266</v>
       </c>
       <c r="R4">
-        <v>-90.37209378507785</v>
+        <v>-100.4045966769022</v>
       </c>
       <c r="S4">
-        <v>150.699849065203</v>
+        <v>150.9154060548271</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.00000000000323</v>
+        <v>0.9727552564427761</v>
       </c>
       <c r="O5">
-        <v>0.999999999993707</v>
+        <v>0.7848521014239401</v>
       </c>
       <c r="P5">
-        <v>0.9999999999931208</v>
+        <v>0.8786293332088672</v>
       </c>
       <c r="Q5">
-        <v>29.99999999950569</v>
+        <v>20.76298901414594</v>
       </c>
       <c r="R5">
-        <v>-90.00000000084326</v>
+        <v>-100.4045966763048</v>
       </c>
       <c r="S5">
-        <v>149.9999999997964</v>
+        <v>150.9154060549267</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.00000000000323</v>
+        <v>0.9727552564427761</v>
       </c>
       <c r="O6">
-        <v>0.999999999993707</v>
+        <v>0.7848521014239402</v>
       </c>
       <c r="P6">
-        <v>0.9999999999931208</v>
+        <v>0.8786293332088672</v>
       </c>
       <c r="Q6">
-        <v>29.99999999950569</v>
+        <v>20.76298901414594</v>
       </c>
       <c r="R6">
-        <v>-90.00000000084326</v>
+        <v>-100.4045966763048</v>
       </c>
       <c r="S6">
-        <v>149.9999999997964</v>
+        <v>150.9154060549267</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.078560055256107</v>
+        <v>1.052967690033817</v>
       </c>
       <c r="G2">
-        <v>-0.2366615503256251</v>
+        <v>-1.442860822386479</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9734,22 +9734,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.615323135457774</v>
+        <v>1.424532906338662</v>
       </c>
       <c r="C3">
-        <v>55.95643482508657</v>
+        <v>49.34726741664637</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799873</v>
+        <v>0.1077319053846547</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="F3">
-        <v>0.9891793628950201</v>
+        <v>0.872344685579278</v>
       </c>
       <c r="G3">
-        <v>45.00000000001764</v>
+        <v>45.00000000014265</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9769,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.062959741151375</v>
+        <v>0.8723446855789757</v>
       </c>
       <c r="G4">
-        <v>-0.52711984668414</v>
+        <v>-10.05101633843851</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9792,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023830402</v>
+        <v>0.8723446855788749</v>
       </c>
       <c r="G5">
-        <v>-8.439701576506097E-10</v>
+        <v>-10.05101633803358</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023830402</v>
+        <v>0.8723446855788749</v>
       </c>
       <c r="G6">
-        <v>-8.439701576506091E-10</v>
+        <v>-10.05101633803358</v>
       </c>
     </row>
   </sheetData>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7936674232646015</v>
+        <v>0.7936674232649462</v>
       </c>
       <c r="G2">
-        <v>0.77507376098905</v>
+        <v>0.7750737609131123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9885,22 +9885,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10.08208641634116</v>
+        <v>4.773167820022141</v>
       </c>
       <c r="C3">
-        <v>349.2537183880583</v>
+        <v>165.3473835466225</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907281</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141778</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53.88629272269358</v>
+        <v>87.26693929749274</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9920,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.666666666627187</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-5.60574817387955E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9943,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-5.671201985405675E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-5.671201985405678E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7936674232646015</v>
+        <v>0.7936674232649462</v>
       </c>
       <c r="G2">
-        <v>0.77507376098905</v>
+        <v>0.7750737609131123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10036,22 +10036,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10.08208641634116</v>
+        <v>4.773167820022141</v>
       </c>
       <c r="C3">
-        <v>349.2537183880583</v>
+        <v>165.3473835466225</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907281</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141778</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53.88629272269358</v>
+        <v>87.26693929749274</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10071,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.666666666627187</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-5.60574817387955E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10094,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-5.671201985405675E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-5.671201985405678E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10176,10 +10176,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9712469717399295</v>
+        <v>0.9517844802483585</v>
       </c>
       <c r="G2">
-        <v>-0.1386668647109439</v>
+        <v>-1.614011382827025</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10187,22 +10187,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.40739431324642</v>
+        <v>1.28165811467074</v>
       </c>
       <c r="C3">
-        <v>48.75356913652615</v>
+        <v>44.39793945085318</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907281</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141778</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
-        <v>0.8618494835866041</v>
+        <v>0.7848521014100437</v>
       </c>
       <c r="G3">
-        <v>44.99999999997153</v>
+        <v>44.99999999986315</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9539031440601138</v>
+        <v>0.7848521014176199</v>
       </c>
       <c r="G4">
-        <v>-0.3720937850798557</v>
+        <v>-10.40459667698047</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999934049</v>
+        <v>0.7848521014201453</v>
       </c>
       <c r="G5">
-        <v>-8.468997397769327E-10</v>
+        <v>-10.40459667638313</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999934049</v>
+        <v>0.7848521014201453</v>
       </c>
       <c r="G6">
-        <v>-8.46899739776933E-10</v>
+        <v>-10.40459667638313</v>
       </c>
     </row>
   </sheetData>
@@ -10327,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9712469717399295</v>
+        <v>0.9517844802483585</v>
       </c>
       <c r="G2">
-        <v>-0.1386668647109439</v>
+        <v>-1.614011382827025</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10338,22 +10338,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.40739431324642</v>
+        <v>1.28165811467074</v>
       </c>
       <c r="C3">
-        <v>48.75356913652615</v>
+        <v>44.39793945085318</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907281</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141778</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
-        <v>0.8618494835866041</v>
+        <v>0.7848521014100437</v>
       </c>
       <c r="G3">
-        <v>44.99999999997153</v>
+        <v>44.99999999986315</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10373,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9539031440601138</v>
+        <v>0.7848521014176199</v>
       </c>
       <c r="G4">
-        <v>-0.3720937850798557</v>
+        <v>-10.40459667698047</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10396,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999934049</v>
+        <v>0.7848521014201453</v>
       </c>
       <c r="G5">
-        <v>-8.468997397769327E-10</v>
+        <v>-10.40459667638313</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999934049</v>
+        <v>0.7848521014201453</v>
       </c>
       <c r="G6">
-        <v>-8.46899739776933E-10</v>
+        <v>-10.40459667638313</v>
       </c>
     </row>
   </sheetData>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.046595068051294</v>
+        <v>1.046595068049951</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523254</v>
+        <v>0.8909260930523821</v>
       </c>
       <c r="P2">
-        <v>1.056652021166353</v>
+        <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204031805</v>
+        <v>25.18850204033979</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314934</v>
+        <v>-89.28600430314906</v>
       </c>
       <c r="S2">
-        <v>155.0677071883441</v>
+        <v>155.0677071882993</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10564,55 +10564,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248875</v>
       </c>
       <c r="D3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248875</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>154.4302300398571</v>
+        <v>54.96310908950735</v>
       </c>
       <c r="G3">
-        <v>154.4302300398571</v>
+        <v>54.96310908950735</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495874</v>
       </c>
       <c r="I3">
-        <v>2.197592797843535</v>
+        <v>2.197592797843665</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781327</v>
+        <v>0.1077319054063124</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133368</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822387</v>
+        <v>0.1077319054133263</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642943</v>
       </c>
       <c r="N3">
-        <v>0.9526279648092861</v>
+        <v>0.952627964802082</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648096813</v>
+        <v>0.9526279648025194</v>
       </c>
       <c r="Q3">
-        <v>8.619094964871716E-11</v>
+        <v>-4.010741462182681E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999998819</v>
+        <v>-179.9999999999899</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.020756821999032</v>
+        <v>0.9526279647753109</v>
       </c>
       <c r="O4">
-        <v>0.733333349138041</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.020756821923894</v>
+        <v>0.9526279648292907</v>
       </c>
       <c r="Q4">
-        <v>21.0517244322152</v>
+        <v>1.41510081469633E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000625394</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755662198</v>
+        <v>179.9999999985764</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663872</v>
       </c>
       <c r="O5">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023756181</v>
+        <v>0.9526279648382144</v>
       </c>
       <c r="Q5">
-        <v>29.99999999523754</v>
+        <v>1.888139238429756E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000015438</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663871</v>
       </c>
       <c r="O6">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023756181</v>
+        <v>0.9526279648382144</v>
       </c>
       <c r="Q6">
-        <v>29.99999999523754</v>
+        <v>1.888163762621318E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000015438</v>
+        <v>179.9999999981034</v>
       </c>
     </row>
   </sheetData>

--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_1_bus_ward34_inductance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_1_bus_ward34_inductance.xlsx
@@ -755,7 +755,7 @@
         <v>1.046595068049951</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523821</v>
+        <v>0.890926093052382</v>
       </c>
       <c r="P2">
         <v>1.056652021165216</v>
@@ -778,49 +778,49 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248875</v>
+        <v>4.759944874248874</v>
       </c>
       <c r="D3">
-        <v>4.759944874248875</v>
+        <v>4.759944874248874</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950735</v>
+        <v>54.96310908950734</v>
       </c>
       <c r="G3">
-        <v>54.96310908950735</v>
+        <v>54.96310908950734</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>5.561447438984334</v>
       </c>
       <c r="I3">
-        <v>2.197592797843665</v>
+        <v>4.713073959613996</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063124</v>
+        <v>0.1077319054061823</v>
       </c>
       <c r="K3">
-        <v>2.308438694631066</v>
+        <v>2.308438694630819</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133263</v>
+        <v>0.1077319054133443</v>
       </c>
       <c r="M3">
-        <v>2.308438694642943</v>
+        <v>2.308438694642912</v>
       </c>
       <c r="N3">
-        <v>0.952627964802082</v>
+        <v>0.9526279648020828</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648025194</v>
+        <v>0.95262796480252</v>
       </c>
       <c r="Q3">
-        <v>-4.010741462182681E-12</v>
+        <v>-4.009048465990519E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753109</v>
+        <v>0.9526279647753118</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648292907</v>
+        <v>0.9526279648292916</v>
       </c>
       <c r="Q4">
-        <v>1.41510081469633E-09</v>
+        <v>1.415109339927602E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663872</v>
+        <v>0.952627964766388</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648382144</v>
+        <v>0.9526279648382155</v>
       </c>
       <c r="Q5">
-        <v>1.888139238429756E-09</v>
+        <v>1.888137007241071E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981033</v>
+        <v>179.9999999981034</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,16 +988,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663871</v>
+        <v>0.952627964766388</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382144</v>
+        <v>0.9526279648382155</v>
       </c>
       <c r="Q6">
-        <v>1.888163762621318E-09</v>
+        <v>1.888146478564534E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1160,34 +1160,34 @@
         <v>23.2204954839191</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>5.561447438984334</v>
       </c>
       <c r="I3">
-        <v>2.197592797843665</v>
+        <v>4.713073959613996</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063124</v>
+        <v>0.1077319054061823</v>
       </c>
       <c r="K3">
-        <v>2.308438694631066</v>
+        <v>2.308438694630819</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133263</v>
+        <v>0.1077319054133443</v>
       </c>
       <c r="M3">
-        <v>2.308438694642943</v>
+        <v>2.308438694642912</v>
       </c>
       <c r="N3">
         <v>1.107498627573925</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765316</v>
+        <v>0.7109795688765315</v>
       </c>
       <c r="P3">
-        <v>0.91716565693814</v>
+        <v>0.9171656569381402</v>
       </c>
       <c r="Q3">
-        <v>17.92198046293676</v>
+        <v>17.92198046293677</v>
       </c>
       <c r="R3">
         <v>-106.5279586928746</v>
@@ -1240,19 +1240,19 @@
         <v>1.107498627561355</v>
       </c>
       <c r="O4">
-        <v>0.7109795688760385</v>
+        <v>0.7109795688760384</v>
       </c>
       <c r="P4">
-        <v>0.9171656569531274</v>
+        <v>0.9171656569531275</v>
       </c>
       <c r="Q4">
-        <v>17.92198046336739</v>
+        <v>17.92198046336741</v>
       </c>
       <c r="R4">
         <v>-106.5279586904451</v>
       </c>
       <c r="S4">
-        <v>158.1868465770594</v>
+        <v>158.1868465770595</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1299,13 +1299,13 @@
         <v>1.107498627557165</v>
       </c>
       <c r="O5">
-        <v>0.7109795688758743</v>
+        <v>0.7109795688758742</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581229</v>
+        <v>0.9171656569581231</v>
       </c>
       <c r="Q5">
-        <v>17.92198046351093</v>
+        <v>17.92198046351095</v>
       </c>
       <c r="R5">
         <v>-106.5279586896352</v>
@@ -1358,13 +1358,13 @@
         <v>1.107498627557165</v>
       </c>
       <c r="O6">
-        <v>0.7109795688758743</v>
+        <v>0.7109795688758742</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581229</v>
+        <v>0.9171656569581231</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351093</v>
+        <v>17.92198046351095</v>
       </c>
       <c r="R6">
         <v>-106.5279586896352</v>
@@ -1527,34 +1527,34 @@
         <v>23.2204954839191</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>5.561447438984334</v>
       </c>
       <c r="I3">
-        <v>2.197592797843665</v>
+        <v>4.713073959613996</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063124</v>
+        <v>0.1077319054061823</v>
       </c>
       <c r="K3">
-        <v>2.308438694631066</v>
+        <v>2.308438694630819</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133263</v>
+        <v>0.1077319054133443</v>
       </c>
       <c r="M3">
-        <v>2.308438694642943</v>
+        <v>2.308438694642912</v>
       </c>
       <c r="N3">
         <v>1.107498627573925</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765316</v>
+        <v>0.7109795688765315</v>
       </c>
       <c r="P3">
-        <v>0.91716565693814</v>
+        <v>0.9171656569381402</v>
       </c>
       <c r="Q3">
-        <v>17.92198046293676</v>
+        <v>17.92198046293677</v>
       </c>
       <c r="R3">
         <v>-106.5279586928746</v>
@@ -1607,19 +1607,19 @@
         <v>1.107498627561355</v>
       </c>
       <c r="O4">
-        <v>0.7109795688760385</v>
+        <v>0.7109795688760384</v>
       </c>
       <c r="P4">
-        <v>0.9171656569531274</v>
+        <v>0.9171656569531275</v>
       </c>
       <c r="Q4">
-        <v>17.92198046336739</v>
+        <v>17.92198046336741</v>
       </c>
       <c r="R4">
         <v>-106.5279586904451</v>
       </c>
       <c r="S4">
-        <v>158.1868465770594</v>
+        <v>158.1868465770595</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1666,13 +1666,13 @@
         <v>1.107498627557165</v>
       </c>
       <c r="O5">
-        <v>0.7109795688758743</v>
+        <v>0.7109795688758742</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581229</v>
+        <v>0.9171656569581231</v>
       </c>
       <c r="Q5">
-        <v>17.92198046351093</v>
+        <v>17.92198046351095</v>
       </c>
       <c r="R5">
         <v>-106.5279586896352</v>
@@ -1725,13 +1725,13 @@
         <v>1.107498627557165</v>
       </c>
       <c r="O6">
-        <v>0.7109795688758743</v>
+        <v>0.7109795688758742</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581229</v>
+        <v>0.9171656569581231</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351093</v>
+        <v>17.92198046351095</v>
       </c>
       <c r="R6">
         <v>-106.5279586896352</v>
@@ -1859,13 +1859,13 @@
         <v>0.7936674232739477</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309888191</v>
       </c>
       <c r="Q2">
         <v>24.75158797610128</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897121</v>
+        <v>-89.22492623897119</v>
       </c>
       <c r="S2">
         <v>155.5173957043593</v>
@@ -1894,34 +1894,34 @@
         <v>47.73167820017935</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>10.67789757998796</v>
       </c>
       <c r="I3">
-        <v>2.173959091208257</v>
+        <v>4.689338209116716</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840206</v>
+        <v>0.1153518594838992</v>
       </c>
       <c r="K3">
-        <v>2.416397540698254</v>
+        <v>2.416397540698006</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713462</v>
+        <v>0.1153518594713686</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540675849</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841224</v>
+        <v>0.866025403784122</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841824</v>
+        <v>0.8660254037841818</v>
       </c>
       <c r="Q3">
-        <v>3.070953155783125E-11</v>
+        <v>3.072692492361737E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597849</v>
+        <v>0.8660254037597843</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085196</v>
+        <v>0.8660254038085193</v>
       </c>
       <c r="Q4">
-        <v>2.755392155813874E-09</v>
+        <v>2.755434838741548E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999972358</v>
+        <v>179.9999999972359</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037516724</v>
+        <v>0.8660254037516716</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166316</v>
       </c>
       <c r="Q5">
-        <v>3.663612511919851E-09</v>
+        <v>3.663677258228125E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963276</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037516724</v>
+        <v>0.8660254037516716</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166316</v>
       </c>
       <c r="Q6">
-        <v>3.663624186873044E-09</v>
+        <v>3.663670325066307E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963276</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
   </sheetData>
@@ -2226,13 +2226,13 @@
         <v>0.7936674232739477</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309888191</v>
       </c>
       <c r="Q2">
         <v>24.75158797610128</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897121</v>
+        <v>-89.22492623897119</v>
       </c>
       <c r="S2">
         <v>155.5173957043593</v>
@@ -2261,34 +2261,34 @@
         <v>47.73167820017935</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>10.67789757998796</v>
       </c>
       <c r="I3">
-        <v>2.173959091208257</v>
+        <v>4.689338209116716</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840206</v>
+        <v>0.1153518594838992</v>
       </c>
       <c r="K3">
-        <v>2.416397540698254</v>
+        <v>2.416397540698006</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713462</v>
+        <v>0.1153518594713686</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540675849</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841224</v>
+        <v>0.866025403784122</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841824</v>
+        <v>0.8660254037841818</v>
       </c>
       <c r="Q3">
-        <v>3.070953155783125E-11</v>
+        <v>3.072692492361737E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597849</v>
+        <v>0.8660254037597843</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085196</v>
+        <v>0.8660254038085193</v>
       </c>
       <c r="Q4">
-        <v>2.755392155813874E-09</v>
+        <v>2.755434838741548E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999972358</v>
+        <v>179.9999999972359</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037516724</v>
+        <v>0.8660254037516716</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166316</v>
       </c>
       <c r="Q5">
-        <v>3.663612511919851E-09</v>
+        <v>3.663677258228125E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963276</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037516724</v>
+        <v>0.8660254037516716</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166316</v>
       </c>
       <c r="Q6">
-        <v>3.663624186873044E-09</v>
+        <v>3.663670325066307E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963276</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
   </sheetData>
@@ -2593,13 +2593,13 @@
         <v>0.9175617791399002</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021194</v>
+        <v>0.9648695716021195</v>
       </c>
       <c r="Q2">
         <v>27.43727595412386</v>
       </c>
       <c r="R2">
-        <v>-92.12802105335017</v>
+        <v>-92.12802105335015</v>
       </c>
       <c r="S2">
         <v>151.6304298035849</v>
@@ -2628,37 +2628,37 @@
         <v>20.73534529545572</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>10.67789757998796</v>
       </c>
       <c r="I3">
-        <v>2.173959091208257</v>
+        <v>4.689338209116716</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840206</v>
+        <v>0.1153518594838992</v>
       </c>
       <c r="K3">
-        <v>2.416397540698254</v>
+        <v>2.416397540698006</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713462</v>
+        <v>0.1153518594713686</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540675849</v>
       </c>
       <c r="N3">
-        <v>1.005693895264115</v>
+        <v>1.005693895264114</v>
       </c>
       <c r="O3">
-        <v>0.6348876951823897</v>
+        <v>0.6348876951823895</v>
       </c>
       <c r="P3">
         <v>0.8307352055776825</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536513</v>
+        <v>17.57011779536514</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758097</v>
+        <v>-106.9885815758096</v>
       </c>
       <c r="S3">
         <v>158.5647675412735</v>
@@ -2708,16 +2708,16 @@
         <v>1.005693895251238</v>
       </c>
       <c r="O4">
-        <v>0.6348876951946469</v>
+        <v>0.6348876951946468</v>
       </c>
       <c r="P4">
-        <v>0.8307352055979549</v>
+        <v>0.8307352055979551</v>
       </c>
       <c r="Q4">
-        <v>17.57011779629439</v>
+        <v>17.57011779629441</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722257</v>
+        <v>-106.9885815722256</v>
       </c>
       <c r="S4">
         <v>158.5647675409582</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.005693895246946</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O5">
-        <v>0.6348876951987328</v>
+        <v>0.6348876951987324</v>
       </c>
       <c r="P5">
         <v>0.8307352056047125</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660414</v>
+        <v>17.57011779660417</v>
       </c>
       <c r="R5">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710309</v>
       </c>
       <c r="S5">
         <v>158.5647675408531</v>
@@ -2823,19 +2823,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.005693895246946</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O6">
-        <v>0.6348876951987328</v>
+        <v>0.6348876951987324</v>
       </c>
       <c r="P6">
         <v>0.8307352056047125</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660414</v>
+        <v>17.57011779660417</v>
       </c>
       <c r="R6">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710309</v>
       </c>
       <c r="S6">
         <v>158.5647675408531</v>
@@ -2960,13 +2960,13 @@
         <v>0.9175617791399002</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021194</v>
+        <v>0.9648695716021195</v>
       </c>
       <c r="Q2">
         <v>27.43727595412386</v>
       </c>
       <c r="R2">
-        <v>-92.12802105335017</v>
+        <v>-92.12802105335015</v>
       </c>
       <c r="S2">
         <v>151.6304298035849</v>
@@ -2995,37 +2995,37 @@
         <v>20.73534529545572</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>10.67789757998796</v>
       </c>
       <c r="I3">
-        <v>2.173959091208257</v>
+        <v>4.689338209116716</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840206</v>
+        <v>0.1153518594838992</v>
       </c>
       <c r="K3">
-        <v>2.416397540698254</v>
+        <v>2.416397540698006</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713462</v>
+        <v>0.1153518594713686</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540675849</v>
       </c>
       <c r="N3">
-        <v>1.005693895264115</v>
+        <v>1.005693895264114</v>
       </c>
       <c r="O3">
-        <v>0.6348876951823897</v>
+        <v>0.6348876951823895</v>
       </c>
       <c r="P3">
         <v>0.8307352055776825</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536513</v>
+        <v>17.57011779536514</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758097</v>
+        <v>-106.9885815758096</v>
       </c>
       <c r="S3">
         <v>158.5647675412735</v>
@@ -3075,16 +3075,16 @@
         <v>1.005693895251238</v>
       </c>
       <c r="O4">
-        <v>0.6348876951946469</v>
+        <v>0.6348876951946468</v>
       </c>
       <c r="P4">
-        <v>0.8307352055979549</v>
+        <v>0.8307352055979551</v>
       </c>
       <c r="Q4">
-        <v>17.57011779629439</v>
+        <v>17.57011779629441</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722257</v>
+        <v>-106.9885815722256</v>
       </c>
       <c r="S4">
         <v>158.5647675409582</v>
@@ -3131,19 +3131,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.005693895246946</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O5">
-        <v>0.6348876951987328</v>
+        <v>0.6348876951987324</v>
       </c>
       <c r="P5">
         <v>0.8307352056047125</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660414</v>
+        <v>17.57011779660417</v>
       </c>
       <c r="R5">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710309</v>
       </c>
       <c r="S5">
         <v>158.5647675408531</v>
@@ -3190,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.005693895246946</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O6">
-        <v>0.6348876951987328</v>
+        <v>0.6348876951987324</v>
       </c>
       <c r="P6">
         <v>0.8307352056047125</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660414</v>
+        <v>17.57011779660417</v>
       </c>
       <c r="R6">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710309</v>
       </c>
       <c r="S6">
         <v>158.5647675408531</v>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.006400165160399</v>
+        <v>1.023801264307584</v>
       </c>
       <c r="O2">
-        <v>1.100000023846833</v>
+        <v>1.100000023845762</v>
       </c>
       <c r="P2">
-        <v>1.062983180491356</v>
+        <v>1.059238986922467</v>
       </c>
       <c r="Q2">
-        <v>29.57860611708429</v>
+        <v>30.29418371173326</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>145.4251889501103</v>
+        <v>146.5699910568738</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>4.269054431591089</v>
+        <v>3.472424018440846</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>49.29479450528559</v>
+        <v>40.0960988357469</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3368,43 +3368,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>5.561447438984334</v>
       </c>
       <c r="I3">
-        <v>2.197592797843469</v>
+        <v>4.7130739596138</v>
       </c>
       <c r="J3">
-        <v>0.1077319053180336</v>
+        <v>0.1077319053183083</v>
       </c>
       <c r="K3">
-        <v>2.308438694642962</v>
+        <v>2.308438694642968</v>
       </c>
       <c r="L3">
-        <v>0.10773190541322</v>
+        <v>0.1077319054131786</v>
       </c>
       <c r="M3">
-        <v>2.308438694642679</v>
+        <v>2.308438694642673</v>
       </c>
       <c r="N3">
-        <v>0.6144432972249565</v>
+        <v>0.6988490467888191</v>
       </c>
       <c r="O3">
-        <v>1.100000023852326</v>
+        <v>1.100000023849484</v>
       </c>
       <c r="P3">
-        <v>1.019342441086347</v>
+        <v>0.9579072563698225</v>
       </c>
       <c r="Q3">
-        <v>23.93807817703963</v>
+        <v>30.52075280744904</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999736</v>
+        <v>-89.99999999999731</v>
       </c>
       <c r="S3">
-        <v>123.4311965199737</v>
+        <v>128.9376574207811</v>
       </c>
       <c r="T3">
-        <v>4.269054431591089</v>
+        <v>3.472424018440847</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.614443297239881</v>
+        <v>0.6988490468065218</v>
       </c>
       <c r="O4">
-        <v>1.100000023852326</v>
+        <v>1.100000023849484</v>
       </c>
       <c r="P4">
-        <v>1.019342441060879</v>
+        <v>0.9579072563535264</v>
       </c>
       <c r="Q4">
-        <v>23.93807817967975</v>
+        <v>30.52075280901411</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999773</v>
+        <v>-89.9999999999976</v>
       </c>
       <c r="S4">
-        <v>123.4311965210633</v>
+        <v>128.9376574219955</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6144432972448578</v>
+        <v>0.6988490468124243</v>
       </c>
       <c r="O5">
-        <v>1.100000023852326</v>
+        <v>1.100000023849484</v>
       </c>
       <c r="P5">
-        <v>1.019342441052391</v>
+        <v>0.9579072563480949</v>
       </c>
       <c r="Q5">
-        <v>23.93807818055971</v>
+        <v>30.52075280953573</v>
       </c>
       <c r="R5">
-        <v>-89.9999999999979</v>
+        <v>-89.99999999999774</v>
       </c>
       <c r="S5">
-        <v>123.4311965214265</v>
+        <v>128.9376574224003</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6144432972448579</v>
+        <v>0.6988490468124243</v>
       </c>
       <c r="O6">
-        <v>1.100000023852326</v>
+        <v>1.100000023849484</v>
       </c>
       <c r="P6">
-        <v>1.019342441052391</v>
+        <v>0.9579072563480949</v>
       </c>
       <c r="Q6">
-        <v>23.93807818055971</v>
+        <v>30.52075280953573</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999979</v>
+        <v>-89.99999999999773</v>
       </c>
       <c r="S6">
-        <v>123.4311965214265</v>
+        <v>128.9376574224003</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.006400165160399</v>
+        <v>1.023801264307584</v>
       </c>
       <c r="O2">
-        <v>1.100000023846833</v>
+        <v>1.100000023845762</v>
       </c>
       <c r="P2">
-        <v>1.062983180491356</v>
+        <v>1.059238986922467</v>
       </c>
       <c r="Q2">
-        <v>29.57860611708429</v>
+        <v>30.29418371173326</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>145.4251889501103</v>
+        <v>146.5699910568738</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>4.269054431591089</v>
+        <v>3.472424018440846</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>49.29479450528559</v>
+        <v>40.0960988357469</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>5.561447438984334</v>
       </c>
       <c r="I3">
-        <v>2.197592797843469</v>
+        <v>4.7130739596138</v>
       </c>
       <c r="J3">
-        <v>0.1077319053180336</v>
+        <v>0.1077319053183083</v>
       </c>
       <c r="K3">
-        <v>2.308438694642962</v>
+        <v>2.308438694642968</v>
       </c>
       <c r="L3">
-        <v>0.10773190541322</v>
+        <v>0.1077319054131786</v>
       </c>
       <c r="M3">
-        <v>2.308438694642679</v>
+        <v>2.308438694642673</v>
       </c>
       <c r="N3">
-        <v>0.6144432972249565</v>
+        <v>0.6988490467888191</v>
       </c>
       <c r="O3">
-        <v>1.100000023852326</v>
+        <v>1.100000023849484</v>
       </c>
       <c r="P3">
-        <v>1.019342441086347</v>
+        <v>0.9579072563698225</v>
       </c>
       <c r="Q3">
-        <v>23.93807817703963</v>
+        <v>30.52075280744904</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999736</v>
+        <v>-89.99999999999731</v>
       </c>
       <c r="S3">
-        <v>123.4311965199737</v>
+        <v>128.9376574207811</v>
       </c>
       <c r="T3">
-        <v>4.269054431591089</v>
+        <v>3.472424018440847</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.614443297239881</v>
+        <v>0.6988490468065218</v>
       </c>
       <c r="O4">
-        <v>1.100000023852326</v>
+        <v>1.100000023849484</v>
       </c>
       <c r="P4">
-        <v>1.019342441060879</v>
+        <v>0.9579072563535264</v>
       </c>
       <c r="Q4">
-        <v>23.93807817967975</v>
+        <v>30.52075280901411</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999773</v>
+        <v>-89.9999999999976</v>
       </c>
       <c r="S4">
-        <v>123.4311965210633</v>
+        <v>128.9376574219955</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6144432972448578</v>
+        <v>0.6988490468124243</v>
       </c>
       <c r="O5">
-        <v>1.100000023852326</v>
+        <v>1.100000023849484</v>
       </c>
       <c r="P5">
-        <v>1.019342441052391</v>
+        <v>0.9579072563480949</v>
       </c>
       <c r="Q5">
-        <v>23.93807818055971</v>
+        <v>30.52075280953573</v>
       </c>
       <c r="R5">
-        <v>-89.9999999999979</v>
+        <v>-89.99999999999774</v>
       </c>
       <c r="S5">
-        <v>123.4311965214265</v>
+        <v>128.9376574224003</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6144432972448579</v>
+        <v>0.6988490468124243</v>
       </c>
       <c r="O6">
-        <v>1.100000023852326</v>
+        <v>1.100000023849484</v>
       </c>
       <c r="P6">
-        <v>1.019342441052391</v>
+        <v>0.9579072563480949</v>
       </c>
       <c r="Q6">
-        <v>23.93807818055971</v>
+        <v>30.52075280953573</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999979</v>
+        <v>-89.99999999999773</v>
       </c>
       <c r="S6">
-        <v>123.4311965214265</v>
+        <v>128.9376574224003</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.072434586115867</v>
+        <v>1.07389154471888</v>
       </c>
       <c r="O2">
-        <v>1.100000023843344</v>
+        <v>1.100000023843247</v>
       </c>
       <c r="P2">
-        <v>1.089822796270588</v>
+        <v>1.089095777683792</v>
       </c>
       <c r="Q2">
-        <v>29.7961857047866</v>
+        <v>29.88337219290621</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.6442299648718</v>
+        <v>148.7527885405312</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.265222117290822</v>
+        <v>1.191002139633844</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.60952660005049</v>
+        <v>13.7525081184604</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4138,43 +4138,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>5.561447438984334</v>
       </c>
       <c r="I3">
-        <v>2.197592797843469</v>
+        <v>4.7130739596138</v>
       </c>
       <c r="J3">
-        <v>0.1077319053180336</v>
+        <v>0.1077319053183083</v>
       </c>
       <c r="K3">
-        <v>2.308438694642962</v>
+        <v>2.308438694642968</v>
       </c>
       <c r="L3">
-        <v>0.10773190541322</v>
+        <v>0.1077319054131786</v>
       </c>
       <c r="M3">
-        <v>2.308438694642679</v>
+        <v>2.308438694642673</v>
       </c>
       <c r="N3">
-        <v>0.9568525387400529</v>
+        <v>0.9638458675576209</v>
       </c>
       <c r="O3">
-        <v>1.100000023845068</v>
+        <v>1.10000002384478</v>
       </c>
       <c r="P3">
-        <v>1.061233259727958</v>
+        <v>1.055775735814907</v>
       </c>
       <c r="Q3">
-        <v>28.34202686749199</v>
+        <v>28.88626887162299</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999667</v>
+        <v>-89.99999999999675</v>
       </c>
       <c r="S3">
-        <v>142.5196106427088</v>
+        <v>143.0671862231729</v>
       </c>
       <c r="T3">
-        <v>1.265222117290822</v>
+        <v>1.191002139633844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9568525387446286</v>
+        <v>0.9638458675624155</v>
       </c>
       <c r="O4">
-        <v>1.100000023845068</v>
+        <v>1.10000002384478</v>
       </c>
       <c r="P4">
-        <v>1.06123325972225</v>
+        <v>1.055775735809998</v>
       </c>
       <c r="Q4">
-        <v>28.3420268679895</v>
+        <v>28.88626887207077</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999679</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S4">
-        <v>142.5196106431179</v>
+        <v>143.0671862235777</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9568525387461545</v>
+        <v>0.9638458675640145</v>
       </c>
       <c r="O5">
-        <v>1.100000023845068</v>
+        <v>1.10000002384478</v>
       </c>
       <c r="P5">
-        <v>1.061233259720349</v>
+        <v>1.055775735808361</v>
       </c>
       <c r="Q5">
-        <v>28.34202686815532</v>
+        <v>28.88626887222</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999685</v>
+        <v>-89.9999999999969</v>
       </c>
       <c r="S5">
-        <v>142.5196106432543</v>
+        <v>143.0671862237126</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9568525387461545</v>
+        <v>0.9638458675640145</v>
       </c>
       <c r="O6">
-        <v>1.100000023845068</v>
+        <v>1.10000002384478</v>
       </c>
       <c r="P6">
-        <v>1.061233259720349</v>
+        <v>1.055775735808361</v>
       </c>
       <c r="Q6">
-        <v>28.34202686815532</v>
+        <v>28.88626887222</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999685</v>
+        <v>-89.9999999999969</v>
       </c>
       <c r="S6">
-        <v>142.5196106432543</v>
+        <v>143.0671862237126</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.072434586115867</v>
+        <v>1.07389154471888</v>
       </c>
       <c r="O2">
-        <v>1.100000023843344</v>
+        <v>1.100000023843247</v>
       </c>
       <c r="P2">
-        <v>1.089822796270588</v>
+        <v>1.089095777683792</v>
       </c>
       <c r="Q2">
-        <v>29.7961857047866</v>
+        <v>29.88337219290621</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.6442299648718</v>
+        <v>148.7527885405312</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.265222117290822</v>
+        <v>1.191002139633844</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.60952660005049</v>
+        <v>13.7525081184604</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4674,43 +4674,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>5.561447438984334</v>
       </c>
       <c r="I3">
-        <v>2.197592797843469</v>
+        <v>4.7130739596138</v>
       </c>
       <c r="J3">
-        <v>0.1077319053180336</v>
+        <v>0.1077319053183083</v>
       </c>
       <c r="K3">
-        <v>2.308438694642962</v>
+        <v>2.308438694642968</v>
       </c>
       <c r="L3">
-        <v>0.10773190541322</v>
+        <v>0.1077319054131786</v>
       </c>
       <c r="M3">
-        <v>2.308438694642679</v>
+        <v>2.308438694642673</v>
       </c>
       <c r="N3">
-        <v>0.9568525387400529</v>
+        <v>0.9638458675576209</v>
       </c>
       <c r="O3">
-        <v>1.100000023845068</v>
+        <v>1.10000002384478</v>
       </c>
       <c r="P3">
-        <v>1.061233259727958</v>
+        <v>1.055775735814907</v>
       </c>
       <c r="Q3">
-        <v>28.34202686749199</v>
+        <v>28.88626887162299</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999667</v>
+        <v>-89.99999999999675</v>
       </c>
       <c r="S3">
-        <v>142.5196106427088</v>
+        <v>143.0671862231729</v>
       </c>
       <c r="T3">
-        <v>1.265222117290822</v>
+        <v>1.191002139633844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9568525387446286</v>
+        <v>0.9638458675624155</v>
       </c>
       <c r="O4">
-        <v>1.100000023845068</v>
+        <v>1.10000002384478</v>
       </c>
       <c r="P4">
-        <v>1.06123325972225</v>
+        <v>1.055775735809998</v>
       </c>
       <c r="Q4">
-        <v>28.3420268679895</v>
+        <v>28.88626887207077</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999679</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S4">
-        <v>142.5196106431179</v>
+        <v>143.0671862235777</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9568525387461545</v>
+        <v>0.9638458675640145</v>
       </c>
       <c r="O5">
-        <v>1.100000023845068</v>
+        <v>1.10000002384478</v>
       </c>
       <c r="P5">
-        <v>1.061233259720349</v>
+        <v>1.055775735808361</v>
       </c>
       <c r="Q5">
-        <v>28.34202686815532</v>
+        <v>28.88626887222</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999685</v>
+        <v>-89.9999999999969</v>
       </c>
       <c r="S5">
-        <v>142.5196106432543</v>
+        <v>143.0671862237126</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9568525387461545</v>
+        <v>0.9638458675640145</v>
       </c>
       <c r="O6">
-        <v>1.100000023845068</v>
+        <v>1.10000002384478</v>
       </c>
       <c r="P6">
-        <v>1.061233259720349</v>
+        <v>1.055775735808361</v>
       </c>
       <c r="Q6">
-        <v>28.34202686815532</v>
+        <v>28.88626887222</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999685</v>
+        <v>-89.9999999999969</v>
       </c>
       <c r="S6">
-        <v>142.5196106432543</v>
+        <v>143.0671862237126</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.93808824098085</v>
+        <v>0.9418634280744484</v>
       </c>
       <c r="O2">
-        <v>0.9999999999958459</v>
+        <v>0.999999999996683</v>
       </c>
       <c r="P2">
-        <v>0.9923448102284133</v>
+        <v>0.9843511709943386</v>
       </c>
       <c r="Q2">
-        <v>28.50094802036746</v>
+        <v>29.17091443724884</v>
       </c>
       <c r="R2">
-        <v>-89.9999999999964</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S2">
-        <v>146.1769103581508</v>
+        <v>146.6659386826217</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.67586925722582</v>
+        <v>2.392345611798043</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>30.89827671951143</v>
+        <v>27.6244276593244</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5059,43 +5059,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>10.67789757998796</v>
       </c>
       <c r="I3">
-        <v>2.173959091208047</v>
+        <v>4.689338209116515</v>
       </c>
       <c r="J3">
-        <v>0.1153518595129096</v>
+        <v>0.1153518595131805</v>
       </c>
       <c r="K3">
-        <v>2.416397540675824</v>
+        <v>2.416397540675837</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711212</v>
+        <v>0.1153518594710868</v>
       </c>
       <c r="M3">
         <v>2.416397540675399</v>
       </c>
       <c r="N3">
-        <v>0.7181269486848424</v>
+        <v>0.7265183357244787</v>
       </c>
       <c r="O3">
-        <v>0.9999999999989709</v>
+        <v>0.9999999999996406</v>
       </c>
       <c r="P3">
-        <v>1.021127642238569</v>
+        <v>0.9722077727455747</v>
       </c>
       <c r="Q3">
-        <v>19.22824764083607</v>
+        <v>23.63955606835571</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999777</v>
+        <v>-89.99999999999766</v>
       </c>
       <c r="S3">
-        <v>131.608419096453</v>
+        <v>133.2025340471191</v>
       </c>
       <c r="T3">
-        <v>2.67586925722582</v>
+        <v>2.392345611798043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.718126948697527</v>
+        <v>0.7265183357411183</v>
       </c>
       <c r="O4">
-        <v>0.9999999999989708</v>
+        <v>0.9999999999996406</v>
       </c>
       <c r="P4">
-        <v>1.02112764221727</v>
+        <v>0.9722077727302882</v>
       </c>
       <c r="Q4">
-        <v>19.22824764309009</v>
+        <v>23.63955607010103</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999825</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S4">
-        <v>131.6084190977144</v>
+        <v>133.2025340484796</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7181269487017579</v>
+        <v>0.7265183357466668</v>
       </c>
       <c r="O5">
-        <v>0.9999999999989709</v>
+        <v>0.9999999999996406</v>
       </c>
       <c r="P5">
-        <v>1.021127642210171</v>
+        <v>0.9722077727251934</v>
       </c>
       <c r="Q5">
-        <v>19.22824764384135</v>
+        <v>23.63955607068274</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999848</v>
+        <v>-89.99999999999825</v>
       </c>
       <c r="S5">
-        <v>131.6084190981349</v>
+        <v>133.2025340489331</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7181269487017579</v>
+        <v>0.7265183357466669</v>
       </c>
       <c r="O6">
-        <v>0.999999999998971</v>
+        <v>0.9999999999996406</v>
       </c>
       <c r="P6">
-        <v>1.021127642210171</v>
+        <v>0.9722077727251934</v>
       </c>
       <c r="Q6">
-        <v>19.22824764384135</v>
+        <v>23.63955607068273</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999848</v>
+        <v>-89.99999999999825</v>
       </c>
       <c r="S6">
-        <v>131.6084190981349</v>
+        <v>133.2025340489331</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.93808824098085</v>
+        <v>0.9418634280744484</v>
       </c>
       <c r="O2">
-        <v>0.9999999999958459</v>
+        <v>0.999999999996683</v>
       </c>
       <c r="P2">
-        <v>0.9923448102284133</v>
+        <v>0.9843511709943386</v>
       </c>
       <c r="Q2">
-        <v>28.50094802036746</v>
+        <v>29.17091443724884</v>
       </c>
       <c r="R2">
-        <v>-89.9999999999964</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S2">
-        <v>146.1769103581508</v>
+        <v>146.6659386826217</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.67586925722582</v>
+        <v>2.392345611798043</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>30.89827671951143</v>
+        <v>27.6244276593244</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5444,43 +5444,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>10.67789757998796</v>
       </c>
       <c r="I3">
-        <v>2.173959091208047</v>
+        <v>4.689338209116515</v>
       </c>
       <c r="J3">
-        <v>0.1153518595129096</v>
+        <v>0.1153518595131805</v>
       </c>
       <c r="K3">
-        <v>2.416397540675824</v>
+        <v>2.416397540675837</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711212</v>
+        <v>0.1153518594710868</v>
       </c>
       <c r="M3">
         <v>2.416397540675399</v>
       </c>
       <c r="N3">
-        <v>0.7181269486848424</v>
+        <v>0.7265183357244787</v>
       </c>
       <c r="O3">
-        <v>0.9999999999989709</v>
+        <v>0.9999999999996406</v>
       </c>
       <c r="P3">
-        <v>1.021127642238569</v>
+        <v>0.9722077727455747</v>
       </c>
       <c r="Q3">
-        <v>19.22824764083607</v>
+        <v>23.63955606835571</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999777</v>
+        <v>-89.99999999999766</v>
       </c>
       <c r="S3">
-        <v>131.608419096453</v>
+        <v>133.2025340471191</v>
       </c>
       <c r="T3">
-        <v>2.67586925722582</v>
+        <v>2.392345611798043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.718126948697527</v>
+        <v>0.7265183357411183</v>
       </c>
       <c r="O4">
-        <v>0.9999999999989708</v>
+        <v>0.9999999999996406</v>
       </c>
       <c r="P4">
-        <v>1.02112764221727</v>
+        <v>0.9722077727302882</v>
       </c>
       <c r="Q4">
-        <v>19.22824764309009</v>
+        <v>23.63955607010103</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999825</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S4">
-        <v>131.6084190977144</v>
+        <v>133.2025340484796</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7181269487017579</v>
+        <v>0.7265183357466668</v>
       </c>
       <c r="O5">
-        <v>0.9999999999989709</v>
+        <v>0.9999999999996406</v>
       </c>
       <c r="P5">
-        <v>1.021127642210171</v>
+        <v>0.9722077727251934</v>
       </c>
       <c r="Q5">
-        <v>19.22824764384135</v>
+        <v>23.63955607068274</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999848</v>
+        <v>-89.99999999999825</v>
       </c>
       <c r="S5">
-        <v>131.6084190981349</v>
+        <v>133.2025340489331</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7181269487017579</v>
+        <v>0.7265183357466669</v>
       </c>
       <c r="O6">
-        <v>0.999999999998971</v>
+        <v>0.9999999999996406</v>
       </c>
       <c r="P6">
-        <v>1.021127642210171</v>
+        <v>0.9722077727251934</v>
       </c>
       <c r="Q6">
-        <v>19.22824764384135</v>
+        <v>23.63955607068273</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999848</v>
+        <v>-89.99999999999825</v>
       </c>
       <c r="S6">
-        <v>131.6084190981349</v>
+        <v>133.2025340489331</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9752784142044824</v>
+        <v>0.9761693310732075</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985698</v>
+        <v>0.9999999999987034</v>
       </c>
       <c r="P2">
-        <v>0.9932418816976996</v>
+        <v>0.9923070492601136</v>
       </c>
       <c r="Q2">
-        <v>29.63976589252149</v>
+        <v>29.73143125695546</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5870138120459</v>
+        <v>148.6756103050291</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.019575804880167</v>
+        <v>0.9710604366942753</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.77304730813587</v>
+        <v>11.21284009049671</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5829,43 +5829,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>10.67789757998796</v>
       </c>
       <c r="I3">
-        <v>2.173959091208047</v>
+        <v>4.689338209116515</v>
       </c>
       <c r="J3">
-        <v>0.1153518595129096</v>
+        <v>0.1153518595131805</v>
       </c>
       <c r="K3">
-        <v>2.416397540675824</v>
+        <v>2.416397540675837</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711212</v>
+        <v>0.1153518594710868</v>
       </c>
       <c r="M3">
         <v>2.416397540675399</v>
       </c>
       <c r="N3">
-        <v>0.8827270761415116</v>
+        <v>0.8863994511581732</v>
       </c>
       <c r="O3">
-        <v>0.9999999999998315</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="P3">
-        <v>0.9794355975913516</v>
+        <v>0.9738694043559866</v>
       </c>
       <c r="Q3">
-        <v>27.67272062331512</v>
+        <v>28.18331150113654</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999682</v>
+        <v>-89.99999999999687</v>
       </c>
       <c r="S3">
-        <v>142.9557126455962</v>
+        <v>143.3476835434446</v>
       </c>
       <c r="T3">
-        <v>1.019575804880166</v>
+        <v>0.9710604366942752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8827270761491318</v>
+        <v>0.8863994511659505</v>
       </c>
       <c r="O4">
-        <v>0.9999999999998315</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="P4">
-        <v>0.9794355975864569</v>
+        <v>0.9738694043519482</v>
       </c>
       <c r="Q4">
-        <v>27.67272062389994</v>
+        <v>28.18331150166099</v>
       </c>
       <c r="R4">
-        <v>-89.999999999997</v>
+        <v>-89.99999999999703</v>
       </c>
       <c r="S4">
-        <v>142.9557126462243</v>
+        <v>143.3476835440616</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.882727076151673</v>
+        <v>0.8863994511685438</v>
       </c>
       <c r="O5">
-        <v>0.9999999999998312</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="P5">
-        <v>0.9794355975848256</v>
+        <v>0.9738694043506023</v>
       </c>
       <c r="Q5">
-        <v>27.67272062409485</v>
+        <v>28.18331150183578</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999707</v>
+        <v>-89.9999999999971</v>
       </c>
       <c r="S5">
-        <v>142.9557126464337</v>
+        <v>143.3476835442673</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.882727076151673</v>
+        <v>0.8863994511685438</v>
       </c>
       <c r="O6">
-        <v>0.9999999999998312</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="P6">
-        <v>0.9794355975848256</v>
+        <v>0.9738694043506023</v>
       </c>
       <c r="Q6">
-        <v>27.67272062409485</v>
+        <v>28.18331150183578</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999707</v>
+        <v>-89.9999999999971</v>
       </c>
       <c r="S6">
-        <v>142.9557126464337</v>
+        <v>143.3476835442673</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9752784142044824</v>
+        <v>0.9761693310732075</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985698</v>
+        <v>0.9999999999987034</v>
       </c>
       <c r="P2">
-        <v>0.9932418816976996</v>
+        <v>0.9923070492601136</v>
       </c>
       <c r="Q2">
-        <v>29.63976589252149</v>
+        <v>29.73143125695546</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5870138120459</v>
+        <v>148.6756103050291</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.019575804880167</v>
+        <v>0.9710604366942753</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.77304730813587</v>
+        <v>11.21284009049671</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6214,43 +6214,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>10.67789757998796</v>
       </c>
       <c r="I3">
-        <v>2.173959091208047</v>
+        <v>4.689338209116515</v>
       </c>
       <c r="J3">
-        <v>0.1153518595129096</v>
+        <v>0.1153518595131805</v>
       </c>
       <c r="K3">
-        <v>2.416397540675824</v>
+        <v>2.416397540675837</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711212</v>
+        <v>0.1153518594710868</v>
       </c>
       <c r="M3">
         <v>2.416397540675399</v>
       </c>
       <c r="N3">
-        <v>0.8827270761415116</v>
+        <v>0.8863994511581732</v>
       </c>
       <c r="O3">
-        <v>0.9999999999998315</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="P3">
-        <v>0.9794355975913516</v>
+        <v>0.9738694043559866</v>
       </c>
       <c r="Q3">
-        <v>27.67272062331512</v>
+        <v>28.18331150113654</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999682</v>
+        <v>-89.99999999999687</v>
       </c>
       <c r="S3">
-        <v>142.9557126455962</v>
+        <v>143.3476835434446</v>
       </c>
       <c r="T3">
-        <v>1.019575804880166</v>
+        <v>0.9710604366942752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8827270761491318</v>
+        <v>0.8863994511659505</v>
       </c>
       <c r="O4">
-        <v>0.9999999999998315</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="P4">
-        <v>0.9794355975864569</v>
+        <v>0.9738694043519482</v>
       </c>
       <c r="Q4">
-        <v>27.67272062389994</v>
+        <v>28.18331150166099</v>
       </c>
       <c r="R4">
-        <v>-89.999999999997</v>
+        <v>-89.99999999999703</v>
       </c>
       <c r="S4">
-        <v>142.9557126462243</v>
+        <v>143.3476835440616</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.882727076151673</v>
+        <v>0.8863994511685438</v>
       </c>
       <c r="O5">
-        <v>0.9999999999998312</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="P5">
-        <v>0.9794355975848256</v>
+        <v>0.9738694043506023</v>
       </c>
       <c r="Q5">
-        <v>27.67272062409485</v>
+        <v>28.18331150183578</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999707</v>
+        <v>-89.9999999999971</v>
       </c>
       <c r="S5">
-        <v>142.9557126464337</v>
+        <v>143.3476835442673</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.882727076151673</v>
+        <v>0.8863994511685438</v>
       </c>
       <c r="O6">
-        <v>0.9999999999998312</v>
+        <v>0.9999999999999197</v>
       </c>
       <c r="P6">
-        <v>0.9794355975848256</v>
+        <v>0.9738694043506023</v>
       </c>
       <c r="Q6">
-        <v>27.67272062409485</v>
+        <v>28.18331150183578</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999707</v>
+        <v>-89.9999999999971</v>
       </c>
       <c r="S6">
-        <v>142.9557126464337</v>
+        <v>143.3476835442673</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.01842373929984</v>
+        <v>1.021451122203005</v>
       </c>
       <c r="O2">
-        <v>0.8909260930534473</v>
+        <v>0.8909260930533587</v>
       </c>
       <c r="P2">
-        <v>1.050632341056126</v>
+        <v>1.04517504226726</v>
       </c>
       <c r="Q2">
-        <v>24.33474940422531</v>
+        <v>24.86672863890629</v>
       </c>
       <c r="R2">
-        <v>-89.2860043031224</v>
+        <v>-89.28600430311954</v>
       </c>
       <c r="S2">
-        <v>153.3531572010471</v>
+        <v>153.8075389336346</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6584,58 +6584,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.029934716893444</v>
+        <v>5.600840712736821</v>
       </c>
       <c r="D3">
-        <v>3.634748069092453</v>
+        <v>4.086138994424799</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>69.627688639886</v>
+        <v>64.67293786373639</v>
       </c>
       <c r="G3">
-        <v>41.97045552254</v>
+        <v>47.18266896754769</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>5.561447438984334</v>
       </c>
       <c r="I3">
-        <v>2.197592797843665</v>
+        <v>4.713073959613996</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063124</v>
+        <v>0.1077319054061823</v>
       </c>
       <c r="K3">
-        <v>2.308438694631066</v>
+        <v>2.308438694630819</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133263</v>
+        <v>0.1077319054133443</v>
       </c>
       <c r="M3">
-        <v>2.308438694642943</v>
+        <v>2.308438694642912</v>
       </c>
       <c r="N3">
-        <v>0.8708416185467565</v>
+        <v>0.8550969521241684</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8708416185493206</v>
+        <v>0.855096952127022</v>
       </c>
       <c r="Q3">
-        <v>-9.283488353327417</v>
+        <v>-5.977364135638234</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>170.7165116466594</v>
+        <v>174.0226358643353</v>
       </c>
       <c r="T3">
-        <v>2.917997876526144</v>
+        <v>2.345974492293585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8708416185120122</v>
+        <v>0.8550969520942114</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8708416185750355</v>
+        <v>0.8550969521552344</v>
       </c>
       <c r="Q4">
-        <v>-9.283488351423893</v>
+        <v>-5.977364133666335</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>170.7165116460672</v>
+        <v>174.0226358635361</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.870841618500429</v>
+        <v>0.8550969520842242</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8708416185836062</v>
+        <v>0.8550969521646379</v>
       </c>
       <c r="Q5">
-        <v>-9.283488350789398</v>
+        <v>-5.977364133009065</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>170.7165116458698</v>
+        <v>174.0226358632696</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.870841618500429</v>
+        <v>0.8550969520842242</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8708416185836063</v>
+        <v>0.8550969521646379</v>
       </c>
       <c r="Q6">
-        <v>-9.283488350789415</v>
+        <v>-5.977364133009057</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>170.7165116458698</v>
+        <v>174.0226358632696</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.01842373929984</v>
+        <v>1.021451122203005</v>
       </c>
       <c r="O2">
-        <v>0.8909260930534473</v>
+        <v>0.8909260930533587</v>
       </c>
       <c r="P2">
-        <v>1.050632341056126</v>
+        <v>1.04517504226726</v>
       </c>
       <c r="Q2">
-        <v>24.33474940422531</v>
+        <v>24.86672863890629</v>
       </c>
       <c r="R2">
-        <v>-89.2860043031224</v>
+        <v>-89.28600430311954</v>
       </c>
       <c r="S2">
-        <v>153.3531572010471</v>
+        <v>153.8075389336346</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6969,58 +6969,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.029934716893444</v>
+        <v>5.600840712736821</v>
       </c>
       <c r="D3">
-        <v>3.634748069092453</v>
+        <v>4.086138994424799</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>69.627688639886</v>
+        <v>64.67293786373639</v>
       </c>
       <c r="G3">
-        <v>41.97045552254</v>
+        <v>47.18266896754769</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>5.561447438984334</v>
       </c>
       <c r="I3">
-        <v>2.197592797843665</v>
+        <v>4.713073959613996</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063124</v>
+        <v>0.1077319054061823</v>
       </c>
       <c r="K3">
-        <v>2.308438694631066</v>
+        <v>2.308438694630819</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133263</v>
+        <v>0.1077319054133443</v>
       </c>
       <c r="M3">
-        <v>2.308438694642943</v>
+        <v>2.308438694642912</v>
       </c>
       <c r="N3">
-        <v>0.8708416185467565</v>
+        <v>0.8550969521241684</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8708416185493206</v>
+        <v>0.855096952127022</v>
       </c>
       <c r="Q3">
-        <v>-9.283488353327417</v>
+        <v>-5.977364135638234</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>170.7165116466594</v>
+        <v>174.0226358643353</v>
       </c>
       <c r="T3">
-        <v>2.917997876526144</v>
+        <v>2.345974492293585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8708416185120122</v>
+        <v>0.8550969520942114</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8708416185750355</v>
+        <v>0.8550969521552344</v>
       </c>
       <c r="Q4">
-        <v>-9.283488351423893</v>
+        <v>-5.977364133666335</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>170.7165116460672</v>
+        <v>174.0226358635361</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.870841618500429</v>
+        <v>0.8550969520842242</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8708416185836062</v>
+        <v>0.8550969521646379</v>
       </c>
       <c r="Q5">
-        <v>-9.283488350789398</v>
+        <v>-5.977364133009065</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>170.7165116458698</v>
+        <v>174.0226358632696</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.870841618500429</v>
+        <v>0.8550969520842242</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8708416185836063</v>
+        <v>0.8550969521646379</v>
       </c>
       <c r="Q6">
-        <v>-9.283488350789415</v>
+        <v>-5.977364133009057</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>170.7165116458698</v>
+        <v>174.0226358632696</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.088142600877449</v>
+        <v>1.088960002567895</v>
       </c>
       <c r="O2">
-        <v>1.052967690033747</v>
+        <v>1.052967690033692</v>
       </c>
       <c r="P2">
-        <v>1.073420542971325</v>
+        <v>1.072626045410891</v>
       </c>
       <c r="Q2">
-        <v>28.40667986457017</v>
+        <v>28.48240471638201</v>
       </c>
       <c r="R2">
-        <v>-91.44286082238048</v>
+        <v>-91.44286082238024</v>
       </c>
       <c r="S2">
-        <v>150.106877722634</v>
+        <v>150.1843805072192</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7354,58 +7354,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.484195649880106</v>
+        <v>1.409973672619395</v>
       </c>
       <c r="D3">
-        <v>1.211666286235113</v>
+        <v>1.254375367049195</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.13801515976701</v>
+        <v>16.28097358874186</v>
       </c>
       <c r="G3">
-        <v>13.99111713051673</v>
+        <v>14.48427911661377</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>5.561447438984334</v>
       </c>
       <c r="I3">
-        <v>2.197592797843665</v>
+        <v>4.713073959613996</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063124</v>
+        <v>0.1077319054061823</v>
       </c>
       <c r="K3">
-        <v>2.308438694631066</v>
+        <v>2.308438694630819</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133263</v>
+        <v>0.1077319054133443</v>
       </c>
       <c r="M3">
-        <v>2.308438694642943</v>
+        <v>2.308438694642912</v>
       </c>
       <c r="N3">
-        <v>1.056537320427519</v>
+        <v>1.059440682173209</v>
       </c>
       <c r="O3">
-        <v>0.8723446855807017</v>
+        <v>0.8723446855805427</v>
       </c>
       <c r="P3">
-        <v>0.9600343016410946</v>
+        <v>0.9554969417139588</v>
       </c>
       <c r="Q3">
-        <v>21.17428113068096</v>
+        <v>21.61788549609841</v>
       </c>
       <c r="R3">
-        <v>-100.0510163396145</v>
+        <v>-100.051016339614</v>
       </c>
       <c r="S3">
-        <v>150.1850824569241</v>
+        <v>150.6284941486283</v>
       </c>
       <c r="T3">
-        <v>1.119849020604905</v>
+        <v>1.017391092052418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.056537320420606</v>
+        <v>1.059440682166636</v>
       </c>
       <c r="O4">
-        <v>0.872344685580399</v>
+        <v>0.8723446855802399</v>
       </c>
       <c r="P4">
-        <v>0.96003430164727</v>
+        <v>0.9554969417207408</v>
       </c>
       <c r="Q4">
-        <v>21.17428113115402</v>
+        <v>21.61788549654634</v>
       </c>
       <c r="R4">
-        <v>-100.0510163383996</v>
+        <v>-100.0510163383992</v>
       </c>
       <c r="S4">
-        <v>150.1850824573215</v>
+        <v>150.6284941490188</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.056537320418302</v>
+        <v>1.059440682164445</v>
       </c>
       <c r="O5">
-        <v>0.8723446855802981</v>
+        <v>0.8723446855801389</v>
       </c>
       <c r="P5">
-        <v>0.9600343016493282</v>
+        <v>0.9554969417230013</v>
       </c>
       <c r="Q5">
-        <v>21.17428113131172</v>
+        <v>21.61788549669566</v>
       </c>
       <c r="R5">
-        <v>-100.0510163379946</v>
+        <v>-100.0510163379942</v>
       </c>
       <c r="S5">
-        <v>150.185082457454</v>
+        <v>150.6284941491489</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.056537320418301</v>
+        <v>1.059440682164445</v>
       </c>
       <c r="O6">
-        <v>0.8723446855802981</v>
+        <v>0.872344685580139</v>
       </c>
       <c r="P6">
-        <v>0.9600343016493282</v>
+        <v>0.9554969417230013</v>
       </c>
       <c r="Q6">
-        <v>21.17428113131172</v>
+        <v>21.61788549669566</v>
       </c>
       <c r="R6">
-        <v>-100.0510163379946</v>
+        <v>-100.0510163379942</v>
       </c>
       <c r="S6">
-        <v>150.185082457454</v>
+        <v>150.6284941491489</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.088142600877449</v>
+        <v>1.088960002567895</v>
       </c>
       <c r="O2">
-        <v>1.052967690033747</v>
+        <v>1.052967690033692</v>
       </c>
       <c r="P2">
-        <v>1.073420542971325</v>
+        <v>1.072626045410891</v>
       </c>
       <c r="Q2">
-        <v>28.40667986457017</v>
+        <v>28.48240471638201</v>
       </c>
       <c r="R2">
-        <v>-91.44286082238048</v>
+        <v>-91.44286082238024</v>
       </c>
       <c r="S2">
-        <v>150.106877722634</v>
+        <v>150.1843805072192</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7739,58 +7739,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.484195649880106</v>
+        <v>1.409973672619395</v>
       </c>
       <c r="D3">
-        <v>1.211666286235113</v>
+        <v>1.254375367049195</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.13801515976701</v>
+        <v>16.28097358874186</v>
       </c>
       <c r="G3">
-        <v>13.99111713051673</v>
+        <v>14.48427911661377</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>5.561447438984334</v>
       </c>
       <c r="I3">
-        <v>2.197592797843665</v>
+        <v>4.713073959613996</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063124</v>
+        <v>0.1077319054061823</v>
       </c>
       <c r="K3">
-        <v>2.308438694631066</v>
+        <v>2.308438694630819</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133263</v>
+        <v>0.1077319054133443</v>
       </c>
       <c r="M3">
-        <v>2.308438694642943</v>
+        <v>2.308438694642912</v>
       </c>
       <c r="N3">
-        <v>1.056537320427519</v>
+        <v>1.059440682173209</v>
       </c>
       <c r="O3">
-        <v>0.8723446855807017</v>
+        <v>0.8723446855805427</v>
       </c>
       <c r="P3">
-        <v>0.9600343016410946</v>
+        <v>0.9554969417139588</v>
       </c>
       <c r="Q3">
-        <v>21.17428113068096</v>
+        <v>21.61788549609841</v>
       </c>
       <c r="R3">
-        <v>-100.0510163396145</v>
+        <v>-100.051016339614</v>
       </c>
       <c r="S3">
-        <v>150.1850824569241</v>
+        <v>150.6284941486283</v>
       </c>
       <c r="T3">
-        <v>1.119849020604905</v>
+        <v>1.017391092052418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.056537320420606</v>
+        <v>1.059440682166636</v>
       </c>
       <c r="O4">
-        <v>0.872344685580399</v>
+        <v>0.8723446855802399</v>
       </c>
       <c r="P4">
-        <v>0.96003430164727</v>
+        <v>0.9554969417207408</v>
       </c>
       <c r="Q4">
-        <v>21.17428113115402</v>
+        <v>21.61788549654634</v>
       </c>
       <c r="R4">
-        <v>-100.0510163383996</v>
+        <v>-100.0510163383992</v>
       </c>
       <c r="S4">
-        <v>150.1850824573215</v>
+        <v>150.6284941490188</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.056537320418302</v>
+        <v>1.059440682164445</v>
       </c>
       <c r="O5">
-        <v>0.8723446855802981</v>
+        <v>0.8723446855801389</v>
       </c>
       <c r="P5">
-        <v>0.9600343016493282</v>
+        <v>0.9554969417230013</v>
       </c>
       <c r="Q5">
-        <v>21.17428113131172</v>
+        <v>21.61788549669566</v>
       </c>
       <c r="R5">
-        <v>-100.0510163379946</v>
+        <v>-100.0510163379942</v>
       </c>
       <c r="S5">
-        <v>150.185082457454</v>
+        <v>150.6284941491489</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.056537320418301</v>
+        <v>1.059440682164445</v>
       </c>
       <c r="O6">
-        <v>0.8723446855802981</v>
+        <v>0.872344685580139</v>
       </c>
       <c r="P6">
-        <v>0.9600343016493282</v>
+        <v>0.9554969417230013</v>
       </c>
       <c r="Q6">
-        <v>21.17428113131172</v>
+        <v>21.61788549669566</v>
       </c>
       <c r="R6">
-        <v>-100.0510163379946</v>
+        <v>-100.0510163379942</v>
       </c>
       <c r="S6">
-        <v>150.185082457454</v>
+        <v>150.6284941491489</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9334935060169504</v>
+        <v>0.9325773266486874</v>
       </c>
       <c r="O2">
-        <v>0.7936674232727595</v>
+        <v>0.7936674232729446</v>
       </c>
       <c r="P2">
-        <v>0.9580977882541356</v>
+        <v>0.954569866415786</v>
       </c>
       <c r="Q2">
-        <v>23.95979098161584</v>
+        <v>24.19623982697075</v>
       </c>
       <c r="R2">
-        <v>-89.224926238975</v>
+        <v>-89.22492623897685</v>
       </c>
       <c r="S2">
-        <v>154.3650519625827</v>
+        <v>154.4725464553308</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8124,58 +8124,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.864249469156539</v>
+        <v>4.750825012514382</v>
       </c>
       <c r="D3">
-        <v>3.420873634629112</v>
+        <v>3.550230288389125</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>56.16751480846045</v>
+        <v>54.85780199695972</v>
       </c>
       <c r="G3">
-        <v>39.50084627633623</v>
+        <v>40.99452825373248</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>10.67789757998796</v>
       </c>
       <c r="I3">
-        <v>2.173959091208257</v>
+        <v>4.689338209116716</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840206</v>
+        <v>0.1153518594838992</v>
       </c>
       <c r="K3">
-        <v>2.416397540698254</v>
+        <v>2.416397540698006</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713462</v>
+        <v>0.1153518594713686</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540675849</v>
       </c>
       <c r="N3">
-        <v>0.8383203831023534</v>
+        <v>0.824551510157054</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8383203831022646</v>
+        <v>0.8245515101568358</v>
       </c>
       <c r="Q3">
-        <v>-5.989874420578567</v>
+        <v>-5.072679616183242</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>174.0101255793317</v>
+        <v>174.9273203837173</v>
       </c>
       <c r="T3">
-        <v>1.541818903287513</v>
+        <v>1.414055757807796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8383203830713345</v>
+        <v>0.8245515101285706</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.838320383128255</v>
+        <v>0.8245515101841244</v>
       </c>
       <c r="Q4">
-        <v>-5.989874417367663</v>
+        <v>-5.072679612915192</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>174.010125577291</v>
+        <v>174.9273203815833</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8383203830609931</v>
+        <v>0.8245515101190746</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8383203831369178</v>
+        <v>0.82455151019322</v>
       </c>
       <c r="Q5">
-        <v>-5.989874416297383</v>
+        <v>-5.072679611825855</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>174.0101255766108</v>
+        <v>174.927320380872</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8383203830609931</v>
+        <v>0.8245515101190746</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8383203831369178</v>
+        <v>0.8245515101932199</v>
       </c>
       <c r="Q6">
-        <v>-5.989874416297388</v>
+        <v>-5.072679611825863</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>174.0101255766108</v>
+        <v>174.927320380872</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9334935060169504</v>
+        <v>0.9325773266486874</v>
       </c>
       <c r="O2">
-        <v>0.7936674232727595</v>
+        <v>0.7936674232729446</v>
       </c>
       <c r="P2">
-        <v>0.9580977882541356</v>
+        <v>0.954569866415786</v>
       </c>
       <c r="Q2">
-        <v>23.95979098161584</v>
+        <v>24.19623982697075</v>
       </c>
       <c r="R2">
-        <v>-89.224926238975</v>
+        <v>-89.22492623897685</v>
       </c>
       <c r="S2">
-        <v>154.3650519625827</v>
+        <v>154.4725464553308</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8660,58 +8660,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.864249469156539</v>
+        <v>4.750825012514382</v>
       </c>
       <c r="D3">
-        <v>3.420873634629112</v>
+        <v>3.550230288389125</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>56.16751480846045</v>
+        <v>54.85780199695972</v>
       </c>
       <c r="G3">
-        <v>39.50084627633623</v>
+        <v>40.99452825373248</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>10.67789757998796</v>
       </c>
       <c r="I3">
-        <v>2.173959091208257</v>
+        <v>4.689338209116716</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840206</v>
+        <v>0.1153518594838992</v>
       </c>
       <c r="K3">
-        <v>2.416397540698254</v>
+        <v>2.416397540698006</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713462</v>
+        <v>0.1153518594713686</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540675849</v>
       </c>
       <c r="N3">
-        <v>0.8383203831023534</v>
+        <v>0.824551510157054</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8383203831022646</v>
+        <v>0.8245515101568358</v>
       </c>
       <c r="Q3">
-        <v>-5.989874420578567</v>
+        <v>-5.072679616183242</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>174.0101255793317</v>
+        <v>174.9273203837173</v>
       </c>
       <c r="T3">
-        <v>1.541818903287513</v>
+        <v>1.414055757807796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8383203830713345</v>
+        <v>0.8245515101285706</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.838320383128255</v>
+        <v>0.8245515101841244</v>
       </c>
       <c r="Q4">
-        <v>-5.989874417367663</v>
+        <v>-5.072679612915192</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>174.010125577291</v>
+        <v>174.9273203815833</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8383203830609931</v>
+        <v>0.8245515101190746</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8383203831369178</v>
+        <v>0.82455151019322</v>
       </c>
       <c r="Q5">
-        <v>-5.989874416297383</v>
+        <v>-5.072679611825855</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>174.0101255766108</v>
+        <v>174.927320380872</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8383203830609931</v>
+        <v>0.8245515101190746</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8383203831369178</v>
+        <v>0.8245515101932199</v>
       </c>
       <c r="Q6">
-        <v>-5.989874416297388</v>
+        <v>-5.072679611825863</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>174.0101255766108</v>
+        <v>174.927320380872</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9906071603375056</v>
+        <v>0.9908350691263919</v>
       </c>
       <c r="O2">
-        <v>0.951784480252284</v>
+        <v>0.9517844802523605</v>
       </c>
       <c r="P2">
-        <v>0.975085074261915</v>
+        <v>0.9742644630767267</v>
       </c>
       <c r="Q2">
-        <v>28.16032573231858</v>
+        <v>28.22459532741493</v>
       </c>
       <c r="R2">
         <v>-91.61401138281261</v>
       </c>
       <c r="S2">
-        <v>150.2468850048779</v>
+        <v>150.2929303779513</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9045,58 +9045,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.332307398888864</v>
+        <v>1.287038715002282</v>
       </c>
       <c r="D3">
-        <v>1.011025655018907</v>
+        <v>1.049025326746678</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.38416070783632</v>
+        <v>14.86144297128076</v>
       </c>
       <c r="G3">
-        <v>11.67431868165567</v>
+        <v>12.1131010956786</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>10.67789757998796</v>
       </c>
       <c r="I3">
-        <v>2.173959091208257</v>
+        <v>4.689338209116716</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840206</v>
+        <v>0.1153518594838992</v>
       </c>
       <c r="K3">
-        <v>2.416397540698254</v>
+        <v>2.416397540698006</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713462</v>
+        <v>0.1153518594713686</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540675849</v>
       </c>
       <c r="N3">
-        <v>0.9727552564516329</v>
+        <v>0.9728840148754081</v>
       </c>
       <c r="O3">
-        <v>0.7848521014138393</v>
+        <v>0.784852101413903</v>
       </c>
       <c r="P3">
-        <v>0.8786293331945181</v>
+        <v>0.8745155648569591</v>
       </c>
       <c r="Q3">
-        <v>20.76298901305287</v>
+        <v>21.08616895233386</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786944</v>
+        <v>-100.4045966786943</v>
       </c>
       <c r="S3">
-        <v>150.9154060545281</v>
+        <v>151.1529130591973</v>
       </c>
       <c r="T3">
-        <v>0.8163878929598345</v>
+        <v>0.7654430164495678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9727552564449908</v>
+        <v>0.9728840148691003</v>
       </c>
       <c r="O4">
-        <v>0.784852101421415</v>
+        <v>0.7848521014214789</v>
       </c>
       <c r="P4">
-        <v>0.8786293332052801</v>
+        <v>0.8745155648682557</v>
       </c>
       <c r="Q4">
-        <v>20.76298901387266</v>
+        <v>21.08616895312871</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769022</v>
+        <v>-100.4045966769021</v>
       </c>
       <c r="S4">
-        <v>150.9154060548271</v>
+        <v>151.1529130594882</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9727552564427761</v>
+        <v>0.9728840148669969</v>
       </c>
       <c r="O5">
-        <v>0.7848521014239401</v>
+        <v>0.7848521014240042</v>
       </c>
       <c r="P5">
-        <v>0.8786293332088672</v>
+        <v>0.8745155648720208</v>
       </c>
       <c r="Q5">
-        <v>20.76298901414594</v>
+        <v>21.08616895339368</v>
       </c>
       <c r="R5">
-        <v>-100.4045966763048</v>
+        <v>-100.4045966763047</v>
       </c>
       <c r="S5">
-        <v>150.9154060549267</v>
+        <v>151.1529130595851</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9727552564427761</v>
+        <v>0.9728840148669969</v>
       </c>
       <c r="O6">
-        <v>0.7848521014239402</v>
+        <v>0.7848521014240042</v>
       </c>
       <c r="P6">
-        <v>0.8786293332088672</v>
+        <v>0.874515564872021</v>
       </c>
       <c r="Q6">
-        <v>20.76298901414594</v>
+        <v>21.08616895339367</v>
       </c>
       <c r="R6">
-        <v>-100.4045966763048</v>
+        <v>-100.4045966763047</v>
       </c>
       <c r="S6">
-        <v>150.9154060549267</v>
+        <v>151.1529130595851</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9906071603375056</v>
+        <v>0.9908350691263919</v>
       </c>
       <c r="O2">
-        <v>0.951784480252284</v>
+        <v>0.9517844802523605</v>
       </c>
       <c r="P2">
-        <v>0.975085074261915</v>
+        <v>0.9742644630767267</v>
       </c>
       <c r="Q2">
-        <v>28.16032573231858</v>
+        <v>28.22459532741493</v>
       </c>
       <c r="R2">
         <v>-91.61401138281261</v>
       </c>
       <c r="S2">
-        <v>150.2468850048779</v>
+        <v>150.2929303779513</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9430,58 +9430,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.332307398888864</v>
+        <v>1.287038715002282</v>
       </c>
       <c r="D3">
-        <v>1.011025655018907</v>
+        <v>1.049025326746678</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.38416070783632</v>
+        <v>14.86144297128076</v>
       </c>
       <c r="G3">
-        <v>11.67431868165567</v>
+        <v>12.1131010956786</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>10.67789757998796</v>
       </c>
       <c r="I3">
-        <v>2.173959091208257</v>
+        <v>4.689338209116716</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840206</v>
+        <v>0.1153518594838992</v>
       </c>
       <c r="K3">
-        <v>2.416397540698254</v>
+        <v>2.416397540698006</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713462</v>
+        <v>0.1153518594713686</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540675849</v>
       </c>
       <c r="N3">
-        <v>0.9727552564516329</v>
+        <v>0.9728840148754081</v>
       </c>
       <c r="O3">
-        <v>0.7848521014138393</v>
+        <v>0.784852101413903</v>
       </c>
       <c r="P3">
-        <v>0.8786293331945181</v>
+        <v>0.8745155648569591</v>
       </c>
       <c r="Q3">
-        <v>20.76298901305287</v>
+        <v>21.08616895233386</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786944</v>
+        <v>-100.4045966786943</v>
       </c>
       <c r="S3">
-        <v>150.9154060545281</v>
+        <v>151.1529130591973</v>
       </c>
       <c r="T3">
-        <v>0.8163878929598345</v>
+        <v>0.7654430164495678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9727552564449908</v>
+        <v>0.9728840148691003</v>
       </c>
       <c r="O4">
-        <v>0.784852101421415</v>
+        <v>0.7848521014214789</v>
       </c>
       <c r="P4">
-        <v>0.8786293332052801</v>
+        <v>0.8745155648682557</v>
       </c>
       <c r="Q4">
-        <v>20.76298901387266</v>
+        <v>21.08616895312871</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769022</v>
+        <v>-100.4045966769021</v>
       </c>
       <c r="S4">
-        <v>150.9154060548271</v>
+        <v>151.1529130594882</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9727552564427761</v>
+        <v>0.9728840148669969</v>
       </c>
       <c r="O5">
-        <v>0.7848521014239401</v>
+        <v>0.7848521014240042</v>
       </c>
       <c r="P5">
-        <v>0.8786293332088672</v>
+        <v>0.8745155648720208</v>
       </c>
       <c r="Q5">
-        <v>20.76298901414594</v>
+        <v>21.08616895339368</v>
       </c>
       <c r="R5">
-        <v>-100.4045966763048</v>
+        <v>-100.4045966763047</v>
       </c>
       <c r="S5">
-        <v>150.9154060549267</v>
+        <v>151.1529130595851</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9727552564427761</v>
+        <v>0.9728840148669969</v>
       </c>
       <c r="O6">
-        <v>0.7848521014239402</v>
+        <v>0.7848521014240042</v>
       </c>
       <c r="P6">
-        <v>0.8786293332088672</v>
+        <v>0.874515564872021</v>
       </c>
       <c r="Q6">
-        <v>20.76298901414594</v>
+        <v>21.08616895339367</v>
       </c>
       <c r="R6">
-        <v>-100.4045966763048</v>
+        <v>-100.4045966763047</v>
       </c>
       <c r="S6">
-        <v>150.9154060549267</v>
+        <v>151.1529130595851</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10541,7 +10541,7 @@
         <v>1.046595068049951</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523821</v>
+        <v>0.890926093052382</v>
       </c>
       <c r="P2">
         <v>1.056652021165216</v>
@@ -10564,49 +10564,49 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248875</v>
+        <v>4.759944874248874</v>
       </c>
       <c r="D3">
-        <v>4.759944874248875</v>
+        <v>4.759944874248874</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950735</v>
+        <v>54.96310908950734</v>
       </c>
       <c r="G3">
-        <v>54.96310908950735</v>
+        <v>54.96310908950734</v>
       </c>
       <c r="H3">
-        <v>5.549477056495874</v>
+        <v>5.561447438984334</v>
       </c>
       <c r="I3">
-        <v>2.197592797843665</v>
+        <v>4.713073959613996</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063124</v>
+        <v>0.1077319054061823</v>
       </c>
       <c r="K3">
-        <v>2.308438694631066</v>
+        <v>2.308438694630819</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133263</v>
+        <v>0.1077319054133443</v>
       </c>
       <c r="M3">
-        <v>2.308438694642943</v>
+        <v>2.308438694642912</v>
       </c>
       <c r="N3">
-        <v>0.952627964802082</v>
+        <v>0.9526279648020828</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648025194</v>
+        <v>0.95262796480252</v>
       </c>
       <c r="Q3">
-        <v>-4.010741462182681E-12</v>
+        <v>-4.009048465990519E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -10656,16 +10656,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753109</v>
+        <v>0.9526279647753118</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648292907</v>
+        <v>0.9526279648292916</v>
       </c>
       <c r="Q4">
-        <v>1.41510081469633E-09</v>
+        <v>1.415109339927602E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663872</v>
+        <v>0.952627964766388</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648382144</v>
+        <v>0.9526279648382155</v>
       </c>
       <c r="Q5">
-        <v>1.888139238429756E-09</v>
+        <v>1.888137007241071E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981033</v>
+        <v>179.9999999981034</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,16 +10774,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663871</v>
+        <v>0.952627964766388</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382144</v>
+        <v>0.9526279648382155</v>
       </c>
       <c r="Q6">
-        <v>1.888163762621318E-09</v>
+        <v>1.888146478564534E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
